--- a/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1191,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>14579</v>
+        <v>14614</v>
       </c>
       <c r="D2">
-        <v>18372704</v>
+        <v>18419433</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1255,10 +1255,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>63000</v>
+        <v>64500</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1287,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>5727</v>
+        <v>5752</v>
       </c>
       <c r="D5">
-        <v>8387917</v>
+        <v>8423364</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1351,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>2963</v>
+        <v>2975</v>
       </c>
       <c r="D7">
-        <v>4283722</v>
+        <v>4299848</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1383,10 +1383,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8">
-        <v>263330</v>
+        <v>264830</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1447,10 +1447,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D10">
-        <v>384792</v>
+        <v>387792</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1479,10 +1479,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>9584</v>
+        <v>9626</v>
       </c>
       <c r="D11">
-        <v>12120432</v>
+        <v>12173354</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1575,10 +1575,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>54230</v>
+        <v>55730</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1607,10 +1607,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2972</v>
+        <v>2980</v>
       </c>
       <c r="D15">
-        <v>4338616</v>
+        <v>4348349</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1671,10 +1671,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="D17">
-        <v>1865101</v>
+        <v>1869601</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1703,10 +1703,10 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D18">
-        <v>399143</v>
+        <v>402143</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1735,10 +1735,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19">
-        <v>192828</v>
+        <v>194328</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1767,10 +1767,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>12758</v>
+        <v>12794</v>
       </c>
       <c r="D20">
-        <v>15760110</v>
+        <v>15805832</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1831,10 +1831,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>50924</v>
+        <v>53924</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1863,10 +1863,10 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>4510</v>
+        <v>4537</v>
       </c>
       <c r="D23">
-        <v>6611389</v>
+        <v>6650260</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1927,10 +1927,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="D25">
-        <v>2189529</v>
+        <v>2197801</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -2023,10 +2023,10 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>5583</v>
+        <v>5652</v>
       </c>
       <c r="D28">
-        <v>7404440</v>
+        <v>7503976</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -2119,10 +2119,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="D31">
-        <v>2111246</v>
+        <v>2118746</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2183,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D33">
-        <v>719097</v>
+        <v>731097</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2215,10 +2215,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D34">
-        <v>653670</v>
+        <v>660608</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2311,10 +2311,10 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>19625</v>
+        <v>19666</v>
       </c>
       <c r="D37">
-        <v>24294125</v>
+        <v>24345768</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2503,10 +2503,10 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>7169</v>
+        <v>7195</v>
       </c>
       <c r="D43">
-        <v>10535718</v>
+        <v>10572698</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2567,10 +2567,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>3467</v>
+        <v>3479</v>
       </c>
       <c r="D45">
-        <v>5027615</v>
+        <v>5043282</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47">
-        <v>361336</v>
+        <v>362836</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2663,10 +2663,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D48">
-        <v>619795</v>
+        <v>627113</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2695,10 +2695,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>7392</v>
+        <v>7409</v>
       </c>
       <c r="D49">
-        <v>9475930</v>
+        <v>9497623</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2823,10 +2823,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>2543</v>
+        <v>2552</v>
       </c>
       <c r="D53">
-        <v>3705194</v>
+        <v>3718694</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2887,10 +2887,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="D55">
-        <v>1337009</v>
+        <v>1345066</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2951,10 +2951,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D57">
-        <v>289438</v>
+        <v>293649</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2983,10 +2983,10 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>31921</v>
+        <v>31998</v>
       </c>
       <c r="D58">
-        <v>41278156</v>
+        <v>41376686</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3111,10 +3111,10 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>11692</v>
+        <v>11768</v>
       </c>
       <c r="D62">
-        <v>17180322</v>
+        <v>17294322</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>4536</v>
+        <v>4557</v>
       </c>
       <c r="D64">
-        <v>6570694</v>
+        <v>6600556</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3239,10 +3239,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D66">
-        <v>354524</v>
+        <v>359024</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3303,10 +3303,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D68">
-        <v>351135</v>
+        <v>355635</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3335,10 +3335,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>41030</v>
+        <v>41129</v>
       </c>
       <c r="D69">
-        <v>52665168</v>
+        <v>52794620</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3463,10 +3463,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>16662</v>
+        <v>16727</v>
       </c>
       <c r="D73">
-        <v>24461085</v>
+        <v>24556972</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3527,10 +3527,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>8319</v>
+        <v>8346</v>
       </c>
       <c r="D75">
-        <v>12030588</v>
+        <v>12070583</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3591,10 +3591,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D77">
-        <v>427635</v>
+        <v>429135</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3655,10 +3655,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D79">
-        <v>835358</v>
+        <v>842582</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3687,10 +3687,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>22091</v>
+        <v>22151</v>
       </c>
       <c r="D80">
-        <v>27931128</v>
+        <v>28003984</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3751,10 +3751,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D82">
-        <v>162912</v>
+        <v>164412</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -3815,10 +3815,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>7992</v>
+        <v>8010</v>
       </c>
       <c r="D84">
-        <v>11744981</v>
+        <v>11771981</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -3879,10 +3879,10 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>4380</v>
+        <v>4408</v>
       </c>
       <c r="D86">
-        <v>6345342</v>
+        <v>6387342</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -3911,10 +3911,10 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D87">
-        <v>443466</v>
+        <v>447966</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -3943,10 +3943,10 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D88">
-        <v>866695</v>
+        <v>875775</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -3975,10 +3975,10 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>19373</v>
+        <v>19440</v>
       </c>
       <c r="D89">
-        <v>24420774</v>
+        <v>24507331</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -4103,10 +4103,10 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <v>8302</v>
+        <v>8339</v>
       </c>
       <c r="D93">
-        <v>12170015</v>
+        <v>12223209</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -4167,10 +4167,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>2958</v>
+        <v>2977</v>
       </c>
       <c r="D95">
-        <v>4234328</v>
+        <v>4260212</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -4263,10 +4263,10 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D98">
-        <v>284077</v>
+        <v>287077</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4295,10 +4295,10 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D99">
-        <v>451656</v>
+        <v>457656</v>
       </c>
       <c r="E99" t="s">
         <v>12</v>
@@ -4327,10 +4327,10 @@
         <v>11</v>
       </c>
       <c r="C100">
-        <v>68022</v>
+        <v>68292</v>
       </c>
       <c r="D100">
-        <v>87276420</v>
+        <v>87624013</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -4519,10 +4519,10 @@
         <v>11</v>
       </c>
       <c r="C106">
-        <v>27718</v>
+        <v>27809</v>
       </c>
       <c r="D106">
-        <v>40761482</v>
+        <v>40895908</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
@@ -4583,10 +4583,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>18209</v>
+        <v>18300</v>
       </c>
       <c r="D108">
-        <v>26331859</v>
+        <v>26462246</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -4679,10 +4679,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D111">
-        <v>829283</v>
+        <v>834633</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -4775,10 +4775,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="D114">
-        <v>1974079</v>
+        <v>1989855</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>24861</v>
+        <v>24944</v>
       </c>
       <c r="D115">
-        <v>32963321</v>
+        <v>33068542</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
@@ -4935,10 +4935,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>8821</v>
+        <v>8855</v>
       </c>
       <c r="D119">
-        <v>12961964</v>
+        <v>13009519</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
@@ -4999,10 +4999,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>2873</v>
+        <v>2886</v>
       </c>
       <c r="D121">
-        <v>4187566</v>
+        <v>4205813</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
@@ -5031,10 +5031,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D122">
-        <v>275352</v>
+        <v>276852</v>
       </c>
       <c r="E122" t="s">
         <v>12</v>
@@ -5095,10 +5095,10 @@
         <v>11</v>
       </c>
       <c r="C124">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D124">
-        <v>366396</v>
+        <v>369396</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
@@ -5127,10 +5127,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>13990</v>
+        <v>14029</v>
       </c>
       <c r="D125">
-        <v>17562316</v>
+        <v>17611474</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -5223,10 +5223,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>7067</v>
+        <v>7101</v>
       </c>
       <c r="D128">
-        <v>10368630</v>
+        <v>10418346</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5287,10 +5287,10 @@
         <v>11</v>
       </c>
       <c r="C130">
-        <v>1953</v>
+        <v>1958</v>
       </c>
       <c r="D130">
-        <v>2802713</v>
+        <v>2810213</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
@@ -5351,10 +5351,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D132">
-        <v>386456</v>
+        <v>389456</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -5415,10 +5415,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D134">
-        <v>431607</v>
+        <v>436107</v>
       </c>
       <c r="E134" t="s">
         <v>13</v>
@@ -5447,10 +5447,10 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>12105</v>
+        <v>12146</v>
       </c>
       <c r="D135">
-        <v>15265001</v>
+        <v>15313740</v>
       </c>
       <c r="E135" t="s">
         <v>13</v>
@@ -5543,10 +5543,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D138">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="E138" t="s">
         <v>13</v>
@@ -5575,10 +5575,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>5755</v>
+        <v>5776</v>
       </c>
       <c r="D139">
-        <v>8441294</v>
+        <v>8471581</v>
       </c>
       <c r="E139" t="s">
         <v>13</v>
@@ -5639,10 +5639,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>1767</v>
+        <v>1774</v>
       </c>
       <c r="D141">
-        <v>2557022</v>
+        <v>2567522</v>
       </c>
       <c r="E141" t="s">
         <v>13</v>
@@ -5703,10 +5703,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D143">
-        <v>143990</v>
+        <v>145119</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -5735,10 +5735,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D144">
-        <v>401569</v>
+        <v>407569</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
@@ -5767,10 +5767,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>5442</v>
+        <v>5459</v>
       </c>
       <c r="D145">
-        <v>6690592</v>
+        <v>6708867</v>
       </c>
       <c r="E145" t="s">
         <v>13</v>
@@ -5863,10 +5863,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="D148">
-        <v>2792316</v>
+        <v>2797855</v>
       </c>
       <c r="E148" t="s">
         <v>13</v>
@@ -5895,10 +5895,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D149">
-        <v>893643</v>
+        <v>896643</v>
       </c>
       <c r="E149" t="s">
         <v>13</v>
@@ -5927,10 +5927,10 @@
         <v>11</v>
       </c>
       <c r="C150">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D150">
-        <v>123677</v>
+        <v>125177</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -5991,10 +5991,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D152">
-        <v>95194</v>
+        <v>98194</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -6023,10 +6023,10 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <v>6761</v>
+        <v>6774</v>
       </c>
       <c r="D153">
-        <v>8437154</v>
+        <v>8453629</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
@@ -6087,10 +6087,10 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>2615</v>
+        <v>2623</v>
       </c>
       <c r="D155">
-        <v>3836816</v>
+        <v>3848816</v>
       </c>
       <c r="E155" t="s">
         <v>13</v>
@@ -6119,10 +6119,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>1259</v>
+        <v>1269</v>
       </c>
       <c r="D156">
-        <v>1811965</v>
+        <v>1825600</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
@@ -6215,10 +6215,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D159">
-        <v>157996</v>
+        <v>159496</v>
       </c>
       <c r="E159" t="s">
         <v>13</v>
@@ -6247,10 +6247,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>5118</v>
+        <v>5131</v>
       </c>
       <c r="D160">
-        <v>6482997</v>
+        <v>6498439</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -6375,10 +6375,10 @@
         <v>11</v>
       </c>
       <c r="C164">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D164">
-        <v>58681</v>
+        <v>60181</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -6407,10 +6407,10 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="D165">
-        <v>2720640</v>
+        <v>2731988</v>
       </c>
       <c r="E165" t="s">
         <v>13</v>
@@ -6471,10 +6471,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D167">
-        <v>893283</v>
+        <v>894783</v>
       </c>
       <c r="E167" t="s">
         <v>13</v>
@@ -6503,10 +6503,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D168">
-        <v>154882</v>
+        <v>156382</v>
       </c>
       <c r="E168" t="s">
         <v>13</v>
@@ -6535,10 +6535,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D169">
-        <v>113504</v>
+        <v>115004</v>
       </c>
       <c r="E169" t="s">
         <v>13</v>
@@ -6567,10 +6567,10 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>14310</v>
+        <v>14348</v>
       </c>
       <c r="D170">
-        <v>18041269</v>
+        <v>18084263</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -6663,10 +6663,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D173">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="E173" t="s">
         <v>13</v>
@@ -6727,10 +6727,10 @@
         <v>11</v>
       </c>
       <c r="C175">
-        <v>5863</v>
+        <v>5877</v>
       </c>
       <c r="D175">
-        <v>8572448</v>
+        <v>8591983</v>
       </c>
       <c r="E175" t="s">
         <v>13</v>
@@ -6759,10 +6759,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="D176">
-        <v>2853353</v>
+        <v>2868353</v>
       </c>
       <c r="E176" t="s">
         <v>13</v>
@@ -6823,10 +6823,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D178">
-        <v>619390</v>
+        <v>622390</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -6855,10 +6855,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D179">
-        <v>470788</v>
+        <v>476788</v>
       </c>
       <c r="E179" t="s">
         <v>13</v>
@@ -6887,10 +6887,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>2734</v>
+        <v>2739</v>
       </c>
       <c r="D180">
-        <v>3454157</v>
+        <v>3461404</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
@@ -6951,10 +6951,10 @@
         <v>11</v>
       </c>
       <c r="C182">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D182">
-        <v>1954686</v>
+        <v>1957800</v>
       </c>
       <c r="E182" t="s">
         <v>13</v>
@@ -7015,10 +7015,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D184">
-        <v>741101</v>
+        <v>742601</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -7143,10 +7143,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>8206</v>
+        <v>8232</v>
       </c>
       <c r="D188">
-        <v>10310642</v>
+        <v>10346874</v>
       </c>
       <c r="E188" t="s">
         <v>13</v>
@@ -7271,10 +7271,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>3133</v>
+        <v>3147</v>
       </c>
       <c r="D192">
-        <v>4610404</v>
+        <v>4631404</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -7303,10 +7303,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="D193">
-        <v>2075540</v>
+        <v>2081728</v>
       </c>
       <c r="E193" t="s">
         <v>13</v>
@@ -7335,10 +7335,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D194">
-        <v>226946</v>
+        <v>232946</v>
       </c>
       <c r="E194" t="s">
         <v>13</v>
@@ -7399,10 +7399,10 @@
         <v>11</v>
       </c>
       <c r="C196">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D196">
-        <v>229680</v>
+        <v>231180</v>
       </c>
       <c r="E196" t="s">
         <v>13</v>
@@ -7431,10 +7431,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>15634</v>
+        <v>15673</v>
       </c>
       <c r="D197">
-        <v>19704535</v>
+        <v>19750297</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
@@ -7527,10 +7527,10 @@
         <v>11</v>
       </c>
       <c r="C200">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D200">
-        <v>256028</v>
+        <v>257528</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -7559,10 +7559,10 @@
         <v>11</v>
       </c>
       <c r="C201">
-        <v>7077</v>
+        <v>7092</v>
       </c>
       <c r="D201">
-        <v>10410328</v>
+        <v>10432828</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
@@ -7591,10 +7591,10 @@
         <v>11</v>
       </c>
       <c r="C202">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="D202">
-        <v>1599838</v>
+        <v>1605838</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
@@ -7623,10 +7623,10 @@
         <v>11</v>
       </c>
       <c r="C203">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D203">
-        <v>339068</v>
+        <v>342068</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
@@ -7655,10 +7655,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D204">
-        <v>504890</v>
+        <v>507890</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
@@ -7687,10 +7687,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>23696</v>
+        <v>23745</v>
       </c>
       <c r="D205">
-        <v>30086277</v>
+        <v>30146950</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
@@ -7719,10 +7719,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D206">
-        <v>29435</v>
+        <v>30535</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
@@ -7783,10 +7783,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D208">
-        <v>367782</v>
+        <v>370782</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
@@ -7815,10 +7815,10 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>9717</v>
+        <v>9748</v>
       </c>
       <c r="D209">
-        <v>14241745</v>
+        <v>14285615</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
@@ -7879,10 +7879,10 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>2368</v>
+        <v>2379</v>
       </c>
       <c r="D211">
-        <v>3425332</v>
+        <v>3441832</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
@@ -7975,10 +7975,10 @@
         <v>11</v>
       </c>
       <c r="C214">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D214">
-        <v>642748</v>
+        <v>654748</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8007,10 +8007,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>25585</v>
+        <v>25650</v>
       </c>
       <c r="D215">
-        <v>32499588</v>
+        <v>32579118</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
@@ -8135,10 +8135,10 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D219">
-        <v>271836</v>
+        <v>274136</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
@@ -8167,10 +8167,10 @@
         <v>11</v>
       </c>
       <c r="C220">
-        <v>13562</v>
+        <v>13590</v>
       </c>
       <c r="D220">
-        <v>19934629</v>
+        <v>19974786</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
@@ -8231,10 +8231,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>2358</v>
+        <v>2367</v>
       </c>
       <c r="D222">
-        <v>3384608</v>
+        <v>3398108</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
@@ -8327,10 +8327,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D225">
-        <v>772219</v>
+        <v>780709</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
@@ -8359,10 +8359,10 @@
         <v>11</v>
       </c>
       <c r="C226">
-        <v>22029</v>
+        <v>22076</v>
       </c>
       <c r="D226">
-        <v>27958662</v>
+        <v>28019094</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
@@ -8423,10 +8423,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D228">
-        <v>46482</v>
+        <v>47982</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -8487,10 +8487,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D230">
-        <v>278512</v>
+        <v>281512</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
@@ -8519,10 +8519,10 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D231">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
@@ -8551,10 +8551,10 @@
         <v>11</v>
       </c>
       <c r="C232">
-        <v>10308</v>
+        <v>10345</v>
       </c>
       <c r="D232">
-        <v>15131235</v>
+        <v>15184864</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
@@ -8583,10 +8583,10 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <v>2279</v>
+        <v>2285</v>
       </c>
       <c r="D233">
-        <v>3258249</v>
+        <v>3267249</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
@@ -8679,10 +8679,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D236">
-        <v>461026</v>
+        <v>468480</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
@@ -8711,10 +8711,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>7121</v>
+        <v>7135</v>
       </c>
       <c r="D237">
-        <v>8950892</v>
+        <v>8969466</v>
       </c>
       <c r="E237" t="s">
         <v>15</v>
@@ -8839,10 +8839,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>2463</v>
+        <v>2468</v>
       </c>
       <c r="D241">
-        <v>3619257</v>
+        <v>3626757</v>
       </c>
       <c r="E241" t="s">
         <v>15</v>
@@ -8903,10 +8903,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D243">
-        <v>1258968</v>
+        <v>1264968</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -8999,10 +8999,10 @@
         <v>11</v>
       </c>
       <c r="C246">
-        <v>8745</v>
+        <v>8761</v>
       </c>
       <c r="D246">
-        <v>11206250</v>
+        <v>11226074</v>
       </c>
       <c r="E246" t="s">
         <v>15</v>
@@ -9127,10 +9127,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>3853</v>
+        <v>3861</v>
       </c>
       <c r="D250">
-        <v>5664944</v>
+        <v>5676944</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9191,10 +9191,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>1952</v>
+        <v>1957</v>
       </c>
       <c r="D252">
-        <v>2824394</v>
+        <v>2831894</v>
       </c>
       <c r="E252" t="s">
         <v>15</v>
@@ -9255,10 +9255,10 @@
         <v>11</v>
       </c>
       <c r="C254">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D254">
-        <v>139317</v>
+        <v>142317</v>
       </c>
       <c r="E254" t="s">
         <v>15</v>
@@ -9287,10 +9287,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>5003</v>
+        <v>5014</v>
       </c>
       <c r="D255">
-        <v>6238107</v>
+        <v>6251673</v>
       </c>
       <c r="E255" t="s">
         <v>15</v>
@@ -9383,10 +9383,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>1829</v>
+        <v>1838</v>
       </c>
       <c r="D258">
-        <v>2687975</v>
+        <v>2700819</v>
       </c>
       <c r="E258" t="s">
         <v>15</v>
@@ -9447,10 +9447,10 @@
         <v>11</v>
       </c>
       <c r="C260">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D260">
-        <v>929477</v>
+        <v>934587</v>
       </c>
       <c r="E260" t="s">
         <v>15</v>
@@ -9479,10 +9479,10 @@
         <v>11</v>
       </c>
       <c r="C261">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D261">
-        <v>173590</v>
+        <v>174478</v>
       </c>
       <c r="E261" t="s">
         <v>15</v>
@@ -9543,10 +9543,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D263">
-        <v>168376</v>
+        <v>169876</v>
       </c>
       <c r="E263" t="s">
         <v>15</v>
@@ -9575,10 +9575,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>16586</v>
+        <v>16631</v>
       </c>
       <c r="D264">
-        <v>20998270</v>
+        <v>21050305</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
@@ -9671,10 +9671,10 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D267">
-        <v>94445</v>
+        <v>95945</v>
       </c>
       <c r="E267" t="s">
         <v>15</v>
@@ -9703,10 +9703,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>7266</v>
+        <v>7283</v>
       </c>
       <c r="D268">
-        <v>10661663</v>
+        <v>10685678</v>
       </c>
       <c r="E268" t="s">
         <v>15</v>
@@ -9767,10 +9767,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>2234</v>
+        <v>2246</v>
       </c>
       <c r="D270">
-        <v>3213939</v>
+        <v>3229451</v>
       </c>
       <c r="E270" t="s">
         <v>15</v>
@@ -9863,10 +9863,10 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D273">
-        <v>506893</v>
+        <v>510860</v>
       </c>
       <c r="E273" t="s">
         <v>15</v>
@@ -9927,10 +9927,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>8356</v>
+        <v>8377</v>
       </c>
       <c r="D275">
-        <v>10542791</v>
+        <v>10571175</v>
       </c>
       <c r="E275" t="s">
         <v>15</v>
@@ -10055,10 +10055,10 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>3581</v>
+        <v>3601</v>
       </c>
       <c r="D279">
-        <v>5246371</v>
+        <v>5274506</v>
       </c>
       <c r="E279" t="s">
         <v>15</v>
@@ -10087,10 +10087,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D280">
-        <v>1612956</v>
+        <v>1617456</v>
       </c>
       <c r="E280" t="s">
         <v>15</v>
@@ -10119,10 +10119,10 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D281">
-        <v>282989</v>
+        <v>284489</v>
       </c>
       <c r="E281" t="s">
         <v>15</v>
@@ -10183,10 +10183,10 @@
         <v>11</v>
       </c>
       <c r="C283">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D283">
-        <v>232016</v>
+        <v>233516</v>
       </c>
       <c r="E283" t="s">
         <v>15</v>
@@ -10215,10 +10215,10 @@
         <v>11</v>
       </c>
       <c r="C284">
-        <v>14584</v>
+        <v>14618</v>
       </c>
       <c r="D284">
-        <v>18113286</v>
+        <v>18156339</v>
       </c>
       <c r="E284" t="s">
         <v>15</v>
@@ -10311,10 +10311,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D287">
-        <v>115478</v>
+        <v>116978</v>
       </c>
       <c r="E287" t="s">
         <v>15</v>
@@ -10343,10 +10343,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>6571</v>
+        <v>6593</v>
       </c>
       <c r="D288">
-        <v>9655580</v>
+        <v>9686591</v>
       </c>
       <c r="E288" t="s">
         <v>15</v>
@@ -10375,10 +10375,10 @@
         <v>11</v>
       </c>
       <c r="C289">
-        <v>2997</v>
+        <v>3008</v>
       </c>
       <c r="D289">
-        <v>4349181</v>
+        <v>4365581</v>
       </c>
       <c r="E289" t="s">
         <v>15</v>
@@ -10471,10 +10471,10 @@
         <v>11</v>
       </c>
       <c r="C292">
-        <v>7985</v>
+        <v>8046</v>
       </c>
       <c r="D292">
-        <v>10421111</v>
+        <v>10501429</v>
       </c>
       <c r="E292" t="s">
         <v>16</v>
@@ -10599,10 +10599,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>3196</v>
+        <v>3212</v>
       </c>
       <c r="D296">
-        <v>4669603</v>
+        <v>4693603</v>
       </c>
       <c r="E296" t="s">
         <v>16</v>
@@ -10631,10 +10631,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="D297">
-        <v>2916938</v>
+        <v>2930273</v>
       </c>
       <c r="E297" t="s">
         <v>16</v>
@@ -10663,10 +10663,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D298">
-        <v>275218</v>
+        <v>276718</v>
       </c>
       <c r="E298" t="s">
         <v>16</v>
@@ -10695,10 +10695,10 @@
         <v>11</v>
       </c>
       <c r="C299">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D299">
-        <v>123727</v>
+        <v>128227</v>
       </c>
       <c r="E299" t="s">
         <v>16</v>
@@ -10727,10 +10727,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>9708</v>
+        <v>9730</v>
       </c>
       <c r="D300">
-        <v>12742857</v>
+        <v>12769007</v>
       </c>
       <c r="E300" t="s">
         <v>16</v>
@@ -10855,10 +10855,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="D304">
-        <v>4756048</v>
+        <v>4766389</v>
       </c>
       <c r="E304" t="s">
         <v>16</v>
@@ -10887,10 +10887,10 @@
         <v>11</v>
       </c>
       <c r="C305">
-        <v>2385</v>
+        <v>2394</v>
       </c>
       <c r="D305">
-        <v>3462873</v>
+        <v>3475437</v>
       </c>
       <c r="E305" t="s">
         <v>16</v>
@@ -10951,10 +10951,10 @@
         <v>11</v>
       </c>
       <c r="C307">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D307">
-        <v>175329</v>
+        <v>179829</v>
       </c>
       <c r="E307" t="s">
         <v>16</v>
@@ -10983,10 +10983,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>6213</v>
+        <v>6232</v>
       </c>
       <c r="D308">
-        <v>7741342</v>
+        <v>7765315</v>
       </c>
       <c r="E308" t="s">
         <v>17</v>
@@ -11111,10 +11111,10 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>2113</v>
+        <v>2118</v>
       </c>
       <c r="D312">
-        <v>3102692</v>
+        <v>3109590</v>
       </c>
       <c r="E312" t="s">
         <v>17</v>
@@ -11175,10 +11175,10 @@
         <v>11</v>
       </c>
       <c r="C314">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D314">
-        <v>1002856</v>
+        <v>1011856</v>
       </c>
       <c r="E314" t="s">
         <v>17</v>
@@ -11239,10 +11239,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D316">
-        <v>120356</v>
+        <v>121856</v>
       </c>
       <c r="E316" t="s">
         <v>17</v>
@@ -11271,10 +11271,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>6751</v>
+        <v>6766</v>
       </c>
       <c r="D317">
-        <v>8497902</v>
+        <v>8515634</v>
       </c>
       <c r="E317" t="s">
         <v>17</v>
@@ -11399,10 +11399,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>2826</v>
+        <v>2844</v>
       </c>
       <c r="D321">
-        <v>4135696</v>
+        <v>4161649</v>
       </c>
       <c r="E321" t="s">
         <v>17</v>
@@ -11431,10 +11431,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="D322">
-        <v>1646506</v>
+        <v>1652506</v>
       </c>
       <c r="E322" t="s">
         <v>17</v>
@@ -11495,10 +11495,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D324">
-        <v>137771</v>
+        <v>139271</v>
       </c>
       <c r="E324" t="s">
         <v>17</v>
@@ -11527,10 +11527,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>28034</v>
+        <v>28136</v>
       </c>
       <c r="D325">
-        <v>35409512</v>
+        <v>35525476</v>
       </c>
       <c r="E325" t="s">
         <v>17</v>
@@ -11623,10 +11623,10 @@
         <v>11</v>
       </c>
       <c r="C328">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D328">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="E328" t="s">
         <v>17</v>
@@ -11719,10 +11719,10 @@
         <v>11</v>
       </c>
       <c r="C331">
-        <v>14919</v>
+        <v>14987</v>
       </c>
       <c r="D331">
-        <v>21864210</v>
+        <v>21960766</v>
       </c>
       <c r="E331" t="s">
         <v>17</v>
@@ -11751,10 +11751,10 @@
         <v>11</v>
       </c>
       <c r="C332">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D332">
-        <v>30082</v>
+        <v>31582</v>
       </c>
       <c r="E332" t="s">
         <v>17</v>
@@ -11815,10 +11815,10 @@
         <v>11</v>
       </c>
       <c r="C334">
-        <v>7135</v>
+        <v>7166</v>
       </c>
       <c r="D334">
-        <v>10301300</v>
+        <v>10346958</v>
       </c>
       <c r="E334" t="s">
         <v>17</v>
@@ -11847,10 +11847,10 @@
         <v>11</v>
       </c>
       <c r="C335">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D335">
-        <v>785092</v>
+        <v>788092</v>
       </c>
       <c r="E335" t="s">
         <v>17</v>
@@ -11879,10 +11879,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D336">
-        <v>806530</v>
+        <v>821307</v>
       </c>
       <c r="E336" t="s">
         <v>17</v>
@@ -11911,10 +11911,10 @@
         <v>11</v>
       </c>
       <c r="C337">
-        <v>17282</v>
+        <v>17331</v>
       </c>
       <c r="D337">
-        <v>21574734</v>
+        <v>21635318</v>
       </c>
       <c r="E337" t="s">
         <v>17</v>
@@ -12039,10 +12039,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>8964</v>
+        <v>8987</v>
       </c>
       <c r="D341">
-        <v>13176191</v>
+        <v>13210161</v>
       </c>
       <c r="E341" t="s">
         <v>17</v>
@@ -12103,10 +12103,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>4211</v>
+        <v>4226</v>
       </c>
       <c r="D343">
-        <v>6106060</v>
+        <v>6127020</v>
       </c>
       <c r="E343" t="s">
         <v>17</v>
@@ -12167,10 +12167,10 @@
         <v>11</v>
       </c>
       <c r="C345">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D345">
-        <v>371536</v>
+        <v>374536</v>
       </c>
       <c r="E345" t="s">
         <v>17</v>
@@ -12199,10 +12199,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>3506</v>
+        <v>3514</v>
       </c>
       <c r="D346">
-        <v>4386831</v>
+        <v>4398033</v>
       </c>
       <c r="E346" t="s">
         <v>17</v>
@@ -12295,10 +12295,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="D349">
-        <v>2030961</v>
+        <v>2046632</v>
       </c>
       <c r="E349" t="s">
         <v>17</v>
@@ -12327,10 +12327,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D350">
-        <v>783385</v>
+        <v>790885</v>
       </c>
       <c r="E350" t="s">
         <v>17</v>
@@ -12423,10 +12423,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D353">
-        <v>104088</v>
+        <v>105588</v>
       </c>
       <c r="E353" t="s">
         <v>17</v>
@@ -12455,10 +12455,10 @@
         <v>11</v>
       </c>
       <c r="C354">
-        <v>12146</v>
+        <v>12193</v>
       </c>
       <c r="D354">
-        <v>15219732</v>
+        <v>15271666</v>
       </c>
       <c r="E354" t="s">
         <v>17</v>
@@ -12583,10 +12583,10 @@
         <v>11</v>
       </c>
       <c r="C358">
-        <v>5858</v>
+        <v>5870</v>
       </c>
       <c r="D358">
-        <v>8587033</v>
+        <v>8603696</v>
       </c>
       <c r="E358" t="s">
         <v>17</v>
@@ -12647,10 +12647,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>2195</v>
+        <v>2207</v>
       </c>
       <c r="D360">
-        <v>3154156</v>
+        <v>3170923</v>
       </c>
       <c r="E360" t="s">
         <v>17</v>
@@ -12679,10 +12679,10 @@
         <v>11</v>
       </c>
       <c r="C361">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="D361">
-        <v>827075</v>
+        <v>842075</v>
       </c>
       <c r="E361" t="s">
         <v>17</v>
@@ -12711,10 +12711,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D362">
-        <v>263736</v>
+        <v>269316</v>
       </c>
       <c r="E362" t="s">
         <v>17</v>
@@ -12743,10 +12743,10 @@
         <v>11</v>
       </c>
       <c r="C363">
-        <v>15862</v>
+        <v>15927</v>
       </c>
       <c r="D363">
-        <v>19826210</v>
+        <v>19900789</v>
       </c>
       <c r="E363" t="s">
         <v>17</v>
@@ -12839,10 +12839,10 @@
         <v>11</v>
       </c>
       <c r="C366">
-        <v>6607</v>
+        <v>6622</v>
       </c>
       <c r="D366">
-        <v>9729803</v>
+        <v>9752303</v>
       </c>
       <c r="E366" t="s">
         <v>17</v>
@@ -12903,10 +12903,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>2547</v>
+        <v>2559</v>
       </c>
       <c r="D368">
-        <v>3704600</v>
+        <v>3722374</v>
       </c>
       <c r="E368" t="s">
         <v>17</v>
@@ -12967,10 +12967,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D370">
-        <v>180896</v>
+        <v>182286</v>
       </c>
       <c r="E370" t="s">
         <v>17</v>
@@ -12999,10 +12999,10 @@
         <v>11</v>
       </c>
       <c r="C371">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D371">
-        <v>418737</v>
+        <v>424412</v>
       </c>
       <c r="E371" t="s">
         <v>17</v>
@@ -13031,10 +13031,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>3732</v>
+        <v>3743</v>
       </c>
       <c r="D372">
-        <v>4694127</v>
+        <v>4708182</v>
       </c>
       <c r="E372" t="s">
         <v>17</v>
@@ -13127,10 +13127,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="D375">
-        <v>1860180</v>
+        <v>1867680</v>
       </c>
       <c r="E375" t="s">
         <v>17</v>
@@ -13159,10 +13159,10 @@
         <v>11</v>
       </c>
       <c r="C376">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D376">
-        <v>757975</v>
+        <v>760975</v>
       </c>
       <c r="E376" t="s">
         <v>17</v>
@@ -13255,10 +13255,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>20001</v>
+        <v>20063</v>
       </c>
       <c r="D379">
-        <v>24953574</v>
+        <v>25031804</v>
       </c>
       <c r="E379" t="s">
         <v>17</v>
@@ -13351,10 +13351,10 @@
         <v>11</v>
       </c>
       <c r="C382">
-        <v>8592</v>
+        <v>8632</v>
       </c>
       <c r="D382">
-        <v>12661460</v>
+        <v>12719480</v>
       </c>
       <c r="E382" t="s">
         <v>17</v>
@@ -13383,10 +13383,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D383">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="E383" t="s">
         <v>17</v>
@@ -13415,10 +13415,10 @@
         <v>11</v>
       </c>
       <c r="C384">
-        <v>5636</v>
+        <v>5664</v>
       </c>
       <c r="D384">
-        <v>8190792</v>
+        <v>8231736</v>
       </c>
       <c r="E384" t="s">
         <v>17</v>
@@ -13479,10 +13479,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D386">
-        <v>375041</v>
+        <v>376541</v>
       </c>
       <c r="E386" t="s">
         <v>17</v>
@@ -13511,10 +13511,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>9997</v>
+        <v>10015</v>
       </c>
       <c r="D387">
-        <v>12376648</v>
+        <v>12400734</v>
       </c>
       <c r="E387" t="s">
         <v>17</v>
@@ -13607,10 +13607,10 @@
         <v>11</v>
       </c>
       <c r="C390">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D390">
-        <v>55097</v>
+        <v>56597</v>
       </c>
       <c r="E390" t="s">
         <v>17</v>
@@ -13671,10 +13671,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>4905</v>
+        <v>4930</v>
       </c>
       <c r="D392">
-        <v>7177138</v>
+        <v>7213652</v>
       </c>
       <c r="E392" t="s">
         <v>17</v>
@@ -13735,10 +13735,10 @@
         <v>11</v>
       </c>
       <c r="C394">
-        <v>1661</v>
+        <v>1674</v>
       </c>
       <c r="D394">
-        <v>2415428</v>
+        <v>2434928</v>
       </c>
       <c r="E394" t="s">
         <v>17</v>
@@ -13799,10 +13799,10 @@
         <v>11</v>
       </c>
       <c r="C396">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D396">
-        <v>231831</v>
+        <v>234831</v>
       </c>
       <c r="E396" t="s">
         <v>17</v>
@@ -13831,10 +13831,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>23612</v>
+        <v>23784</v>
       </c>
       <c r="D397">
-        <v>32069750</v>
+        <v>32297817</v>
       </c>
       <c r="E397" t="s">
         <v>18</v>
@@ -13959,10 +13959,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>6328</v>
+        <v>6356</v>
       </c>
       <c r="D401">
-        <v>9329839</v>
+        <v>9368176</v>
       </c>
       <c r="E401" t="s">
         <v>18</v>
@@ -14023,10 +14023,10 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>5483</v>
+        <v>5523</v>
       </c>
       <c r="D403">
-        <v>7947196</v>
+        <v>8006034</v>
       </c>
       <c r="E403" t="s">
         <v>18</v>
@@ -14087,10 +14087,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D405">
-        <v>542159</v>
+        <v>545809</v>
       </c>
       <c r="E405" t="s">
         <v>18</v>
@@ -14119,10 +14119,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D406">
-        <v>461161</v>
+        <v>464161</v>
       </c>
       <c r="E406" t="s">
         <v>18</v>
@@ -14151,10 +14151,10 @@
         <v>11</v>
       </c>
       <c r="C407">
-        <v>5345</v>
+        <v>5394</v>
       </c>
       <c r="D407">
-        <v>7403181</v>
+        <v>7473286</v>
       </c>
       <c r="E407" t="s">
         <v>19</v>
@@ -14215,10 +14215,10 @@
         <v>11</v>
       </c>
       <c r="C409">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="D409">
-        <v>1999062</v>
+        <v>2014062</v>
       </c>
       <c r="E409" t="s">
         <v>19</v>
@@ -14279,10 +14279,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>1859</v>
+        <v>1871</v>
       </c>
       <c r="D411">
-        <v>2712626</v>
+        <v>2730601</v>
       </c>
       <c r="E411" t="s">
         <v>19</v>
@@ -14343,10 +14343,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D413">
-        <v>91520</v>
+        <v>93020</v>
       </c>
       <c r="E413" t="s">
         <v>19</v>
@@ -14375,10 +14375,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D414">
-        <v>128412</v>
+        <v>133789</v>
       </c>
       <c r="E414" t="s">
         <v>19</v>
@@ -14407,10 +14407,10 @@
         <v>11</v>
       </c>
       <c r="C415">
-        <v>9995</v>
+        <v>10010</v>
       </c>
       <c r="D415">
-        <v>12387528</v>
+        <v>12401316</v>
       </c>
       <c r="E415" t="s">
         <v>20</v>
@@ -14503,10 +14503,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>3489</v>
+        <v>3498</v>
       </c>
       <c r="D418">
-        <v>5124127</v>
+        <v>5137627</v>
       </c>
       <c r="E418" t="s">
         <v>20</v>
@@ -14567,10 +14567,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="D420">
-        <v>2399799</v>
+        <v>2407299</v>
       </c>
       <c r="E420" t="s">
         <v>20</v>
@@ -14631,10 +14631,10 @@
         <v>11</v>
       </c>
       <c r="C422">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D422">
-        <v>169441</v>
+        <v>170941</v>
       </c>
       <c r="E422" t="s">
         <v>20</v>
@@ -14663,10 +14663,10 @@
         <v>11</v>
       </c>
       <c r="C423">
-        <v>55635</v>
+        <v>55759</v>
       </c>
       <c r="D423">
-        <v>69122955</v>
+        <v>69277164</v>
       </c>
       <c r="E423" t="s">
         <v>20</v>
@@ -14759,10 +14759,10 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D426">
-        <v>397696</v>
+        <v>405196</v>
       </c>
       <c r="E426" t="s">
         <v>20</v>
@@ -14791,10 +14791,10 @@
         <v>11</v>
       </c>
       <c r="C427">
-        <v>22923</v>
+        <v>22992</v>
       </c>
       <c r="D427">
-        <v>33630720</v>
+        <v>33733065</v>
       </c>
       <c r="E427" t="s">
         <v>20</v>
@@ -14823,10 +14823,10 @@
         <v>11</v>
       </c>
       <c r="C428">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D428">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="E428" t="s">
         <v>20</v>
@@ -14855,10 +14855,10 @@
         <v>11</v>
       </c>
       <c r="C429">
-        <v>11458</v>
+        <v>11503</v>
       </c>
       <c r="D429">
-        <v>16618595</v>
+        <v>16683080</v>
       </c>
       <c r="E429" t="s">
         <v>20</v>
@@ -14887,10 +14887,10 @@
         <v>11</v>
       </c>
       <c r="C430">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D430">
-        <v>545827</v>
+        <v>551034</v>
       </c>
       <c r="E430" t="s">
         <v>20</v>
@@ -14983,10 +14983,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D433">
-        <v>1108660</v>
+        <v>1117650</v>
       </c>
       <c r="E433" t="s">
         <v>20</v>
@@ -15047,10 +15047,10 @@
         <v>11</v>
       </c>
       <c r="C435">
-        <v>16932</v>
+        <v>16969</v>
       </c>
       <c r="D435">
-        <v>21390265</v>
+        <v>21436103</v>
       </c>
       <c r="E435" t="s">
         <v>20</v>
@@ -15143,10 +15143,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D438">
-        <v>204976</v>
+        <v>206476</v>
       </c>
       <c r="E438" t="s">
         <v>20</v>
@@ -15175,10 +15175,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>7041</v>
+        <v>7060</v>
       </c>
       <c r="D439">
-        <v>10357624</v>
+        <v>10386124</v>
       </c>
       <c r="E439" t="s">
         <v>20</v>
@@ -15239,10 +15239,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>4281</v>
+        <v>4291</v>
       </c>
       <c r="D441">
-        <v>6216875</v>
+        <v>6231875</v>
       </c>
       <c r="E441" t="s">
         <v>20</v>
@@ -15335,10 +15335,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>29457</v>
+        <v>29508</v>
       </c>
       <c r="D444">
-        <v>36144872</v>
+        <v>36206292</v>
       </c>
       <c r="E444" t="s">
         <v>20</v>
@@ -15463,10 +15463,10 @@
         <v>11</v>
       </c>
       <c r="C448">
-        <v>10609</v>
+        <v>10633</v>
       </c>
       <c r="D448">
-        <v>15550551</v>
+        <v>15585922</v>
       </c>
       <c r="E448" t="s">
         <v>20</v>
@@ -15527,10 +15527,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>4488</v>
+        <v>4499</v>
       </c>
       <c r="D450">
-        <v>6517550</v>
+        <v>6533070</v>
       </c>
       <c r="E450" t="s">
         <v>20</v>
@@ -15559,10 +15559,10 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D451">
-        <v>423154</v>
+        <v>424654</v>
       </c>
       <c r="E451" t="s">
         <v>20</v>
@@ -15591,10 +15591,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D452">
-        <v>451730</v>
+        <v>456230</v>
       </c>
       <c r="E452" t="s">
         <v>20</v>
@@ -15623,10 +15623,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>12855</v>
+        <v>12882</v>
       </c>
       <c r="D453">
-        <v>15800904</v>
+        <v>15832362</v>
       </c>
       <c r="E453" t="s">
         <v>20</v>
@@ -15719,10 +15719,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D456">
-        <v>148393</v>
+        <v>149893</v>
       </c>
       <c r="E456" t="s">
         <v>20</v>
@@ -15783,10 +15783,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>4051</v>
+        <v>4067</v>
       </c>
       <c r="D458">
-        <v>5959919</v>
+        <v>5983919</v>
       </c>
       <c r="E458" t="s">
         <v>20</v>
@@ -15847,10 +15847,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>1847</v>
+        <v>1856</v>
       </c>
       <c r="D460">
-        <v>2667987</v>
+        <v>2678611</v>
       </c>
       <c r="E460" t="s">
         <v>20</v>
@@ -15879,10 +15879,10 @@
         <v>11</v>
       </c>
       <c r="C461">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D461">
-        <v>175232</v>
+        <v>176937</v>
       </c>
       <c r="E461" t="s">
         <v>20</v>
@@ -15911,10 +15911,10 @@
         <v>11</v>
       </c>
       <c r="C462">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D462">
-        <v>349701</v>
+        <v>353733</v>
       </c>
       <c r="E462" t="s">
         <v>20</v>
@@ -15943,10 +15943,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>37300</v>
+        <v>37421</v>
       </c>
       <c r="D463">
-        <v>50054497</v>
+        <v>50207259</v>
       </c>
       <c r="E463" t="s">
         <v>21</v>
@@ -15975,10 +15975,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D464">
-        <v>31153</v>
+        <v>32653</v>
       </c>
       <c r="E464" t="s">
         <v>21</v>
@@ -16135,10 +16135,10 @@
         <v>11</v>
       </c>
       <c r="C469">
-        <v>12397</v>
+        <v>12429</v>
       </c>
       <c r="D469">
-        <v>18225420</v>
+        <v>18273127</v>
       </c>
       <c r="E469" t="s">
         <v>21</v>
@@ -16167,10 +16167,10 @@
         <v>11</v>
       </c>
       <c r="C470">
-        <v>3239</v>
+        <v>3247</v>
       </c>
       <c r="D470">
-        <v>4677466</v>
+        <v>4688941</v>
       </c>
       <c r="E470" t="s">
         <v>21</v>
@@ -16263,10 +16263,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D473">
-        <v>470536</v>
+        <v>472036</v>
       </c>
       <c r="E473" t="s">
         <v>21</v>
@@ -16327,10 +16327,10 @@
         <v>11</v>
       </c>
       <c r="C475">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D475">
-        <v>408690</v>
+        <v>413190</v>
       </c>
       <c r="E475" t="s">
         <v>21</v>
@@ -16359,10 +16359,10 @@
         <v>11</v>
       </c>
       <c r="C476">
-        <v>14080</v>
+        <v>14150</v>
       </c>
       <c r="D476">
-        <v>18686782</v>
+        <v>18777683</v>
       </c>
       <c r="E476" t="s">
         <v>22</v>
@@ -16487,10 +16487,10 @@
         <v>11</v>
       </c>
       <c r="C480">
-        <v>6039</v>
+        <v>6071</v>
       </c>
       <c r="D480">
-        <v>8800752</v>
+        <v>8848752</v>
       </c>
       <c r="E480" t="s">
         <v>22</v>
@@ -16551,10 +16551,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>3999</v>
+        <v>4020</v>
       </c>
       <c r="D482">
-        <v>5772169</v>
+        <v>5799615</v>
       </c>
       <c r="E482" t="s">
         <v>22</v>
@@ -16615,10 +16615,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D484">
-        <v>287933</v>
+        <v>289433</v>
       </c>
       <c r="E484" t="s">
         <v>22</v>
@@ -16647,10 +16647,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D485">
-        <v>243164</v>
+        <v>250664</v>
       </c>
       <c r="E485" t="s">
         <v>22</v>
@@ -16711,10 +16711,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>8745</v>
+        <v>8872</v>
       </c>
       <c r="D487">
-        <v>12619681</v>
+        <v>12805026</v>
       </c>
       <c r="E487" t="s">
         <v>23</v>
@@ -16743,10 +16743,10 @@
         <v>11</v>
       </c>
       <c r="C488">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D488">
-        <v>1940578</v>
+        <v>1945078</v>
       </c>
       <c r="E488" t="s">
         <v>23</v>
@@ -16775,10 +16775,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D489">
-        <v>261171</v>
+        <v>265671</v>
       </c>
       <c r="E489" t="s">
         <v>23</v>
@@ -16807,10 +16807,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D490">
-        <v>37190</v>
+        <v>38690</v>
       </c>
       <c r="E490" t="s">
         <v>23</v>
@@ -16871,10 +16871,10 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>19527</v>
+        <v>19584</v>
       </c>
       <c r="D492">
-        <v>24597963</v>
+        <v>24666146</v>
       </c>
       <c r="E492" t="s">
         <v>24</v>
@@ -16999,10 +16999,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>8297</v>
+        <v>8312</v>
       </c>
       <c r="D496">
-        <v>12174834</v>
+        <v>12197334</v>
       </c>
       <c r="E496" t="s">
         <v>24</v>
@@ -17063,10 +17063,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>2964</v>
+        <v>2977</v>
       </c>
       <c r="D498">
-        <v>4263803</v>
+        <v>4283303</v>
       </c>
       <c r="E498" t="s">
         <v>24</v>
@@ -17127,10 +17127,10 @@
         <v>11</v>
       </c>
       <c r="C500">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D500">
-        <v>482336</v>
+        <v>485336</v>
       </c>
       <c r="E500" t="s">
         <v>24</v>
@@ -17191,10 +17191,10 @@
         <v>11</v>
       </c>
       <c r="C502">
-        <v>13112</v>
+        <v>13140</v>
       </c>
       <c r="D502">
-        <v>16494410</v>
+        <v>16530042</v>
       </c>
       <c r="E502" t="s">
         <v>24</v>
@@ -17287,10 +17287,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D505">
-        <v>117938</v>
+        <v>119438</v>
       </c>
       <c r="E505" t="s">
         <v>24</v>
@@ -17319,10 +17319,10 @@
         <v>11</v>
       </c>
       <c r="C506">
-        <v>5357</v>
+        <v>5379</v>
       </c>
       <c r="D506">
-        <v>7874129</v>
+        <v>7904747</v>
       </c>
       <c r="E506" t="s">
         <v>24</v>
@@ -17383,10 +17383,10 @@
         <v>11</v>
       </c>
       <c r="C508">
-        <v>2414</v>
+        <v>2425</v>
       </c>
       <c r="D508">
-        <v>3483642</v>
+        <v>3499884</v>
       </c>
       <c r="E508" t="s">
         <v>24</v>
@@ -17479,10 +17479,10 @@
         <v>11</v>
       </c>
       <c r="C511">
-        <v>12493</v>
+        <v>12534</v>
       </c>
       <c r="D511">
-        <v>15897862</v>
+        <v>15947356</v>
       </c>
       <c r="E511" t="s">
         <v>24</v>
@@ -17575,10 +17575,10 @@
         <v>11</v>
       </c>
       <c r="C514">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D514">
-        <v>214883</v>
+        <v>216383</v>
       </c>
       <c r="E514" t="s">
         <v>24</v>
@@ -17607,10 +17607,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>4797</v>
+        <v>4821</v>
       </c>
       <c r="D515">
-        <v>7041369</v>
+        <v>7074036</v>
       </c>
       <c r="E515" t="s">
         <v>24</v>
@@ -17639,10 +17639,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D516">
-        <v>1496279</v>
+        <v>1500779</v>
       </c>
       <c r="E516" t="s">
         <v>24</v>
@@ -17735,10 +17735,10 @@
         <v>11</v>
       </c>
       <c r="C519">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D519">
-        <v>293990</v>
+        <v>296990</v>
       </c>
       <c r="E519" t="s">
         <v>24</v>
@@ -17767,10 +17767,10 @@
         <v>11</v>
       </c>
       <c r="C520">
-        <v>6751</v>
+        <v>6773</v>
       </c>
       <c r="D520">
-        <v>8725634</v>
+        <v>8752755</v>
       </c>
       <c r="E520" t="s">
         <v>24</v>
@@ -17927,10 +17927,10 @@
         <v>11</v>
       </c>
       <c r="C525">
-        <v>2341</v>
+        <v>2350</v>
       </c>
       <c r="D525">
-        <v>3437531</v>
+        <v>3451031</v>
       </c>
       <c r="E525" t="s">
         <v>24</v>
@@ -17959,10 +17959,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D526">
-        <v>1101914</v>
+        <v>1109001</v>
       </c>
       <c r="E526" t="s">
         <v>24</v>
@@ -18055,10 +18055,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>25533</v>
+        <v>25589</v>
       </c>
       <c r="D529">
-        <v>31552735</v>
+        <v>31617135</v>
       </c>
       <c r="E529" t="s">
         <v>24</v>
@@ -18151,10 +18151,10 @@
         <v>11</v>
       </c>
       <c r="C532">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D532">
-        <v>204797</v>
+        <v>206297</v>
       </c>
       <c r="E532" t="s">
         <v>24</v>
@@ -18183,10 +18183,10 @@
         <v>11</v>
       </c>
       <c r="C533">
-        <v>10159</v>
+        <v>10202</v>
       </c>
       <c r="D533">
-        <v>14916751</v>
+        <v>14979452</v>
       </c>
       <c r="E533" t="s">
         <v>24</v>
@@ -18247,10 +18247,10 @@
         <v>11</v>
       </c>
       <c r="C535">
-        <v>4290</v>
+        <v>4301</v>
       </c>
       <c r="D535">
-        <v>6228125</v>
+        <v>6244625</v>
       </c>
       <c r="E535" t="s">
         <v>24</v>
@@ -18311,10 +18311,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D537">
-        <v>316568</v>
+        <v>318068</v>
       </c>
       <c r="E537" t="s">
         <v>24</v>
@@ -18343,10 +18343,10 @@
         <v>11</v>
       </c>
       <c r="C538">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D538">
-        <v>637519</v>
+        <v>639019</v>
       </c>
       <c r="E538" t="s">
         <v>24</v>
@@ -18375,10 +18375,10 @@
         <v>11</v>
       </c>
       <c r="C539">
-        <v>10226</v>
+        <v>10248</v>
       </c>
       <c r="D539">
-        <v>12513008</v>
+        <v>12538681</v>
       </c>
       <c r="E539" t="s">
         <v>25</v>
@@ -18535,10 +18535,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>3389</v>
+        <v>3399</v>
       </c>
       <c r="D544">
-        <v>4966178</v>
+        <v>4979865</v>
       </c>
       <c r="E544" t="s">
         <v>25</v>
@@ -18567,10 +18567,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D545">
-        <v>1449198</v>
+        <v>1453045</v>
       </c>
       <c r="E545" t="s">
         <v>25</v>
@@ -18599,10 +18599,10 @@
         <v>11</v>
       </c>
       <c r="C546">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D546">
-        <v>109192</v>
+        <v>112192</v>
       </c>
       <c r="E546" t="s">
         <v>25</v>
@@ -18631,10 +18631,10 @@
         <v>11</v>
       </c>
       <c r="C547">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D547">
-        <v>249580</v>
+        <v>251080</v>
       </c>
       <c r="E547" t="s">
         <v>25</v>
@@ -18663,10 +18663,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>25712</v>
+        <v>25761</v>
       </c>
       <c r="D548">
-        <v>32120551</v>
+        <v>32181782</v>
       </c>
       <c r="E548" t="s">
         <v>25</v>
@@ -18791,10 +18791,10 @@
         <v>11</v>
       </c>
       <c r="C552">
-        <v>9984</v>
+        <v>9996</v>
       </c>
       <c r="D552">
-        <v>14686337</v>
+        <v>14704337</v>
       </c>
       <c r="E552" t="s">
         <v>25</v>
@@ -18855,10 +18855,10 @@
         <v>11</v>
       </c>
       <c r="C554">
-        <v>2814</v>
+        <v>2829</v>
       </c>
       <c r="D554">
-        <v>4062704</v>
+        <v>4082205</v>
       </c>
       <c r="E554" t="s">
         <v>25</v>
@@ -18951,10 +18951,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D557">
-        <v>524456</v>
+        <v>528956</v>
       </c>
       <c r="E557" t="s">
         <v>25</v>
@@ -18983,10 +18983,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>6765</v>
+        <v>6787</v>
       </c>
       <c r="D558">
-        <v>8612098</v>
+        <v>8638338</v>
       </c>
       <c r="E558" t="s">
         <v>25</v>
@@ -19047,10 +19047,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>2454</v>
+        <v>2461</v>
       </c>
       <c r="D560">
-        <v>3609058</v>
+        <v>3617888</v>
       </c>
       <c r="E560" t="s">
         <v>25</v>
@@ -19111,10 +19111,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="D562">
-        <v>1715398</v>
+        <v>1725898</v>
       </c>
       <c r="E562" t="s">
         <v>25</v>
@@ -19239,10 +19239,10 @@
         <v>11</v>
       </c>
       <c r="C566">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="D566">
-        <v>4097894</v>
+        <v>4103837</v>
       </c>
       <c r="E566" t="s">
         <v>25</v>
@@ -19463,10 +19463,10 @@
         <v>11</v>
       </c>
       <c r="C573">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D573">
-        <v>158308</v>
+        <v>161308</v>
       </c>
       <c r="E573" t="s">
         <v>25</v>
@@ -19495,10 +19495,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>8355</v>
+        <v>8362</v>
       </c>
       <c r="D574">
-        <v>10501579</v>
+        <v>10508977</v>
       </c>
       <c r="E574" t="s">
         <v>25</v>
@@ -19623,10 +19623,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>3227</v>
+        <v>3235</v>
       </c>
       <c r="D578">
-        <v>4761347</v>
+        <v>4771105</v>
       </c>
       <c r="E578" t="s">
         <v>25</v>
@@ -19655,10 +19655,10 @@
         <v>11</v>
       </c>
       <c r="C579">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D579">
-        <v>972392</v>
+        <v>974934</v>
       </c>
       <c r="E579" t="s">
         <v>25</v>
@@ -19687,10 +19687,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D580">
-        <v>201444</v>
+        <v>204444</v>
       </c>
       <c r="E580" t="s">
         <v>25</v>
@@ -19719,10 +19719,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D581">
-        <v>291216</v>
+        <v>294216</v>
       </c>
       <c r="E581" t="s">
         <v>25</v>
@@ -19751,10 +19751,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>17253</v>
+        <v>17287</v>
       </c>
       <c r="D582">
-        <v>21198238</v>
+        <v>21234319</v>
       </c>
       <c r="E582" t="s">
         <v>25</v>
@@ -19879,10 +19879,10 @@
         <v>11</v>
       </c>
       <c r="C586">
-        <v>5172</v>
+        <v>5189</v>
       </c>
       <c r="D586">
-        <v>7558825</v>
+        <v>7581862</v>
       </c>
       <c r="E586" t="s">
         <v>25</v>
@@ -19943,10 +19943,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="D588">
-        <v>2909124</v>
+        <v>2921124</v>
       </c>
       <c r="E588" t="s">
         <v>25</v>
@@ -20039,10 +20039,10 @@
         <v>11</v>
       </c>
       <c r="C591">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D591">
-        <v>346897</v>
+        <v>349667</v>
       </c>
       <c r="E591" t="s">
         <v>25</v>
@@ -20071,10 +20071,10 @@
         <v>11</v>
       </c>
       <c r="C592">
-        <v>64753</v>
+        <v>64896</v>
       </c>
       <c r="D592">
-        <v>81587261</v>
+        <v>81756845</v>
       </c>
       <c r="E592" t="s">
         <v>25</v>
@@ -20231,10 +20231,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>24262</v>
+        <v>24327</v>
       </c>
       <c r="D597">
-        <v>35655243</v>
+        <v>35750281</v>
       </c>
       <c r="E597" t="s">
         <v>25</v>
@@ -20327,10 +20327,10 @@
         <v>11</v>
       </c>
       <c r="C600">
-        <v>11688</v>
+        <v>11721</v>
       </c>
       <c r="D600">
-        <v>16852702</v>
+        <v>16897287</v>
       </c>
       <c r="E600" t="s">
         <v>25</v>
@@ -20423,10 +20423,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="D603">
-        <v>2479999</v>
+        <v>2494999</v>
       </c>
       <c r="E603" t="s">
         <v>25</v>
@@ -20487,10 +20487,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="D605">
-        <v>1315562</v>
+        <v>1336714</v>
       </c>
       <c r="E605" t="s">
         <v>25</v>
@@ -20519,10 +20519,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>9812</v>
+        <v>9836</v>
       </c>
       <c r="D606">
-        <v>12047195</v>
+        <v>12071246</v>
       </c>
       <c r="E606" t="s">
         <v>25</v>
@@ -20551,10 +20551,10 @@
         <v>11</v>
       </c>
       <c r="C607">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D607">
-        <v>27000</v>
+        <v>28500</v>
       </c>
       <c r="E607" t="s">
         <v>25</v>
@@ -20583,10 +20583,10 @@
         <v>11</v>
       </c>
       <c r="C608">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D608">
-        <v>100832</v>
+        <v>102332</v>
       </c>
       <c r="E608" t="s">
         <v>25</v>
@@ -20615,10 +20615,10 @@
         <v>11</v>
       </c>
       <c r="C609">
-        <v>3796</v>
+        <v>3803</v>
       </c>
       <c r="D609">
-        <v>5562469</v>
+        <v>5572562</v>
       </c>
       <c r="E609" t="s">
         <v>25</v>
@@ -20679,10 +20679,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="D611">
-        <v>1954711</v>
+        <v>1963711</v>
       </c>
       <c r="E611" t="s">
         <v>25</v>
@@ -20743,10 +20743,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D613">
-        <v>258468</v>
+        <v>259968</v>
       </c>
       <c r="E613" t="s">
         <v>25</v>
@@ -20775,10 +20775,10 @@
         <v>11</v>
       </c>
       <c r="C614">
-        <v>15904</v>
+        <v>15940</v>
       </c>
       <c r="D614">
-        <v>19729865</v>
+        <v>19775827</v>
       </c>
       <c r="E614" t="s">
         <v>25</v>
@@ -20903,10 +20903,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>6309</v>
+        <v>6321</v>
       </c>
       <c r="D618">
-        <v>9228905</v>
+        <v>9246165</v>
       </c>
       <c r="E618" t="s">
         <v>25</v>
@@ -20967,10 +20967,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="D620">
-        <v>2841961</v>
+        <v>2844961</v>
       </c>
       <c r="E620" t="s">
         <v>25</v>
@@ -21031,10 +21031,10 @@
         <v>11</v>
       </c>
       <c r="C622">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D622">
-        <v>377474</v>
+        <v>378974</v>
       </c>
       <c r="E622" t="s">
         <v>25</v>
@@ -21063,10 +21063,10 @@
         <v>11</v>
       </c>
       <c r="C623">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D623">
-        <v>364198</v>
+        <v>365698</v>
       </c>
       <c r="E623" t="s">
         <v>25</v>
@@ -21127,10 +21127,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>10240</v>
+        <v>10267</v>
       </c>
       <c r="D625">
-        <v>12657204</v>
+        <v>12688304</v>
       </c>
       <c r="E625" t="s">
         <v>25</v>
@@ -21255,10 +21255,10 @@
         <v>11</v>
       </c>
       <c r="C629">
-        <v>3887</v>
+        <v>3894</v>
       </c>
       <c r="D629">
-        <v>5699139</v>
+        <v>5709639</v>
       </c>
       <c r="E629" t="s">
         <v>25</v>
@@ -21319,10 +21319,10 @@
         <v>11</v>
       </c>
       <c r="C631">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="D631">
-        <v>2095088</v>
+        <v>2102588</v>
       </c>
       <c r="E631" t="s">
         <v>25</v>
@@ -21351,10 +21351,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D632">
-        <v>290261</v>
+        <v>291761</v>
       </c>
       <c r="E632" t="s">
         <v>25</v>
@@ -21415,10 +21415,10 @@
         <v>11</v>
       </c>
       <c r="C634">
-        <v>26438</v>
+        <v>26522</v>
       </c>
       <c r="D634">
-        <v>33025131</v>
+        <v>33126895</v>
       </c>
       <c r="E634" t="s">
         <v>25</v>
@@ -21575,10 +21575,10 @@
         <v>11</v>
       </c>
       <c r="C639">
-        <v>11531</v>
+        <v>11574</v>
       </c>
       <c r="D639">
-        <v>16884953</v>
+        <v>16946724</v>
       </c>
       <c r="E639" t="s">
         <v>25</v>
@@ -21639,10 +21639,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>3700</v>
+        <v>3716</v>
       </c>
       <c r="D641">
-        <v>5297233</v>
+        <v>5319903</v>
       </c>
       <c r="E641" t="s">
         <v>25</v>
@@ -21703,10 +21703,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D643">
-        <v>907461</v>
+        <v>910461</v>
       </c>
       <c r="E643" t="s">
         <v>25</v>
@@ -21735,10 +21735,10 @@
         <v>11</v>
       </c>
       <c r="C644">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D644">
-        <v>753882</v>
+        <v>755382</v>
       </c>
       <c r="E644" t="s">
         <v>25</v>
@@ -21799,10 +21799,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>10703</v>
+        <v>10729</v>
       </c>
       <c r="D646">
-        <v>13264840</v>
+        <v>13303611</v>
       </c>
       <c r="E646" t="s">
         <v>25</v>
@@ -21895,10 +21895,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>4245</v>
+        <v>4255</v>
       </c>
       <c r="D649">
-        <v>6213989</v>
+        <v>6228312</v>
       </c>
       <c r="E649" t="s">
         <v>25</v>
@@ -21927,10 +21927,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D650">
-        <v>1446422</v>
+        <v>1452384</v>
       </c>
       <c r="E650" t="s">
         <v>25</v>
@@ -21959,10 +21959,10 @@
         <v>11</v>
       </c>
       <c r="C651">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D651">
-        <v>214394</v>
+        <v>215894</v>
       </c>
       <c r="E651" t="s">
         <v>25</v>
@@ -22023,10 +22023,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>5892</v>
+        <v>5917</v>
       </c>
       <c r="D653">
-        <v>6978507</v>
+        <v>7004382</v>
       </c>
       <c r="E653" t="s">
         <v>26</v>
@@ -22087,10 +22087,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="D655">
-        <v>2228460</v>
+        <v>2233609</v>
       </c>
       <c r="E655" t="s">
         <v>26</v>
@@ -22119,10 +22119,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="D656">
-        <v>1289947</v>
+        <v>1297236</v>
       </c>
       <c r="E656" t="s">
         <v>26</v>
@@ -22151,10 +22151,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D657">
-        <v>199634</v>
+        <v>200509</v>
       </c>
       <c r="E657" t="s">
         <v>26</v>
@@ -22183,10 +22183,10 @@
         <v>11</v>
       </c>
       <c r="C658">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D658">
-        <v>167908</v>
+        <v>169312</v>
       </c>
       <c r="E658" t="s">
         <v>26</v>
@@ -22215,10 +22215,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>14848</v>
+        <v>14884</v>
       </c>
       <c r="D659">
-        <v>18089107</v>
+        <v>18132816</v>
       </c>
       <c r="E659" t="s">
         <v>26</v>
@@ -22375,10 +22375,10 @@
         <v>11</v>
       </c>
       <c r="C664">
-        <v>4980</v>
+        <v>5003</v>
       </c>
       <c r="D664">
-        <v>7298308</v>
+        <v>7331959</v>
       </c>
       <c r="E664" t="s">
         <v>26</v>
@@ -22439,10 +22439,10 @@
         <v>11</v>
       </c>
       <c r="C666">
-        <v>3017</v>
+        <v>3030</v>
       </c>
       <c r="D666">
-        <v>4417125</v>
+        <v>4436625</v>
       </c>
       <c r="E666" t="s">
         <v>26</v>
@@ -22503,10 +22503,10 @@
         <v>11</v>
       </c>
       <c r="C668">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D668">
-        <v>467188</v>
+        <v>473188</v>
       </c>
       <c r="E668" t="s">
         <v>26</v>
@@ -22535,10 +22535,10 @@
         <v>11</v>
       </c>
       <c r="C669">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D669">
-        <v>282263</v>
+        <v>284709</v>
       </c>
       <c r="E669" t="s">
         <v>26</v>
@@ -22567,10 +22567,10 @@
         <v>11</v>
       </c>
       <c r="C670">
-        <v>10172</v>
+        <v>10214</v>
       </c>
       <c r="D670">
-        <v>12983769</v>
+        <v>13036452</v>
       </c>
       <c r="E670" t="s">
         <v>26</v>
@@ -22695,10 +22695,10 @@
         <v>11</v>
       </c>
       <c r="C674">
-        <v>3608</v>
+        <v>3633</v>
       </c>
       <c r="D674">
-        <v>5287106</v>
+        <v>5323261</v>
       </c>
       <c r="E674" t="s">
         <v>26</v>
@@ -22759,10 +22759,10 @@
         <v>11</v>
       </c>
       <c r="C676">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="D676">
-        <v>1597923</v>
+        <v>1605423</v>
       </c>
       <c r="E676" t="s">
         <v>26</v>
@@ -22823,10 +22823,10 @@
         <v>11</v>
       </c>
       <c r="C678">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D678">
-        <v>626190</v>
+        <v>630690</v>
       </c>
       <c r="E678" t="s">
         <v>26</v>
@@ -22855,10 +22855,10 @@
         <v>11</v>
       </c>
       <c r="C679">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D679">
-        <v>248226</v>
+        <v>252766</v>
       </c>
       <c r="E679" t="s">
         <v>26</v>
@@ -22887,10 +22887,10 @@
         <v>11</v>
       </c>
       <c r="C680">
-        <v>28624</v>
+        <v>28711</v>
       </c>
       <c r="D680">
-        <v>35384214</v>
+        <v>35490749</v>
       </c>
       <c r="E680" t="s">
         <v>26</v>
@@ -22919,10 +22919,10 @@
         <v>11</v>
       </c>
       <c r="C681">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D681">
-        <v>7940</v>
+        <v>10940</v>
       </c>
       <c r="E681" t="s">
         <v>26</v>
@@ -22983,10 +22983,10 @@
         <v>11</v>
       </c>
       <c r="C683">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D683">
-        <v>110803</v>
+        <v>111058</v>
       </c>
       <c r="E683" t="s">
         <v>26</v>
@@ -23015,10 +23015,10 @@
         <v>11</v>
       </c>
       <c r="C684">
-        <v>11948</v>
+        <v>11988</v>
       </c>
       <c r="D684">
-        <v>17506976</v>
+        <v>17563281</v>
       </c>
       <c r="E684" t="s">
         <v>26</v>
@@ -23079,10 +23079,10 @@
         <v>11</v>
       </c>
       <c r="C686">
-        <v>5431</v>
+        <v>5456</v>
       </c>
       <c r="D686">
-        <v>7855367</v>
+        <v>7888895</v>
       </c>
       <c r="E686" t="s">
         <v>26</v>
@@ -23111,10 +23111,10 @@
         <v>11</v>
       </c>
       <c r="C687">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D687">
-        <v>620453</v>
+        <v>623453</v>
       </c>
       <c r="E687" t="s">
         <v>26</v>
@@ -23175,10 +23175,10 @@
         <v>11</v>
       </c>
       <c r="C689">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D689">
-        <v>689301</v>
+        <v>698992</v>
       </c>
       <c r="E689" t="s">
         <v>26</v>
@@ -23207,10 +23207,10 @@
         <v>11</v>
       </c>
       <c r="C690">
-        <v>6783</v>
+        <v>6809</v>
       </c>
       <c r="D690">
-        <v>8432960</v>
+        <v>8464475</v>
       </c>
       <c r="E690" t="s">
         <v>26</v>
@@ -23399,10 +23399,10 @@
         <v>11</v>
       </c>
       <c r="C696">
-        <v>2422</v>
+        <v>2432</v>
       </c>
       <c r="D696">
-        <v>3546783</v>
+        <v>3561118</v>
       </c>
       <c r="E696" t="s">
         <v>26</v>
@@ -23431,10 +23431,10 @@
         <v>11</v>
       </c>
       <c r="C697">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="D697">
-        <v>1444621</v>
+        <v>1454361</v>
       </c>
       <c r="E697" t="s">
         <v>26</v>
@@ -23463,10 +23463,10 @@
         <v>11</v>
       </c>
       <c r="C698">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D698">
-        <v>446568</v>
+        <v>449568</v>
       </c>
       <c r="E698" t="s">
         <v>26</v>
@@ -23527,10 +23527,10 @@
         <v>11</v>
       </c>
       <c r="C700">
-        <v>49810</v>
+        <v>49969</v>
       </c>
       <c r="D700">
-        <v>62169697</v>
+        <v>62352536</v>
       </c>
       <c r="E700" t="s">
         <v>26</v>
@@ -23655,10 +23655,10 @@
         <v>11</v>
       </c>
       <c r="C704">
-        <v>19203</v>
+        <v>19273</v>
       </c>
       <c r="D704">
-        <v>28126291</v>
+        <v>28223421</v>
       </c>
       <c r="E704" t="s">
         <v>26</v>
@@ -23751,10 +23751,10 @@
         <v>11</v>
       </c>
       <c r="C707">
-        <v>11071</v>
+        <v>11115</v>
       </c>
       <c r="D707">
-        <v>15990552</v>
+        <v>16050087</v>
       </c>
       <c r="E707" t="s">
         <v>26</v>
@@ -23815,10 +23815,10 @@
         <v>11</v>
       </c>
       <c r="C709">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D709">
-        <v>535216</v>
+        <v>539716</v>
       </c>
       <c r="E709" t="s">
         <v>26</v>
@@ -23847,10 +23847,10 @@
         <v>11</v>
       </c>
       <c r="C710">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D710">
-        <v>1395014</v>
+        <v>1402514</v>
       </c>
       <c r="E710" t="s">
         <v>26</v>
@@ -23879,10 +23879,10 @@
         <v>11</v>
       </c>
       <c r="C711">
-        <v>9712</v>
+        <v>9747</v>
       </c>
       <c r="D711">
-        <v>12161528</v>
+        <v>12202423</v>
       </c>
       <c r="E711" t="s">
         <v>26</v>
@@ -24007,10 +24007,10 @@
         <v>11</v>
       </c>
       <c r="C715">
-        <v>3366</v>
+        <v>3384</v>
       </c>
       <c r="D715">
-        <v>4900225</v>
+        <v>4925954</v>
       </c>
       <c r="E715" t="s">
         <v>26</v>
@@ -24071,10 +24071,10 @@
         <v>11</v>
       </c>
       <c r="C717">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="D717">
-        <v>1548665</v>
+        <v>1553165</v>
       </c>
       <c r="E717" t="s">
         <v>26</v>
@@ -24135,10 +24135,10 @@
         <v>11</v>
       </c>
       <c r="C719">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D719">
-        <v>148831</v>
+        <v>153331</v>
       </c>
       <c r="E719" t="s">
         <v>26</v>
@@ -24231,10 +24231,10 @@
         <v>11</v>
       </c>
       <c r="C722">
-        <v>51301</v>
+        <v>51487</v>
       </c>
       <c r="D722">
-        <v>63726583</v>
+        <v>63952964</v>
       </c>
       <c r="E722" t="s">
         <v>26</v>
@@ -24295,10 +24295,10 @@
         <v>11</v>
       </c>
       <c r="C724">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D724">
-        <v>47252</v>
+        <v>48752</v>
       </c>
       <c r="E724" t="s">
         <v>26</v>
@@ -24391,10 +24391,10 @@
         <v>11</v>
       </c>
       <c r="C727">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D727">
-        <v>117158</v>
+        <v>120158</v>
       </c>
       <c r="E727" t="s">
         <v>26</v>
@@ -24423,10 +24423,10 @@
         <v>11</v>
       </c>
       <c r="C728">
-        <v>20210</v>
+        <v>20275</v>
       </c>
       <c r="D728">
-        <v>29674482</v>
+        <v>29767702</v>
       </c>
       <c r="E728" t="s">
         <v>26</v>
@@ -24487,10 +24487,10 @@
         <v>11</v>
       </c>
       <c r="C730">
-        <v>12654</v>
+        <v>12709</v>
       </c>
       <c r="D730">
-        <v>18346334</v>
+        <v>18426340</v>
       </c>
       <c r="E730" t="s">
         <v>26</v>
@@ -24551,10 +24551,10 @@
         <v>11</v>
       </c>
       <c r="C732">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D732">
-        <v>1141884</v>
+        <v>1144228</v>
       </c>
       <c r="E732" t="s">
         <v>26</v>
@@ -24583,10 +24583,10 @@
         <v>11</v>
       </c>
       <c r="C733">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="D733">
-        <v>1327805</v>
+        <v>1338907</v>
       </c>
       <c r="E733" t="s">
         <v>26</v>
@@ -24647,10 +24647,10 @@
         <v>11</v>
       </c>
       <c r="C735">
-        <v>6845</v>
+        <v>6857</v>
       </c>
       <c r="D735">
-        <v>8448234</v>
+        <v>8464638</v>
       </c>
       <c r="E735" t="s">
         <v>26</v>
@@ -24711,10 +24711,10 @@
         <v>11</v>
       </c>
       <c r="C737">
-        <v>2310</v>
+        <v>2324</v>
       </c>
       <c r="D737">
-        <v>3371678</v>
+        <v>3392499</v>
       </c>
       <c r="E737" t="s">
         <v>26</v>
@@ -24743,10 +24743,10 @@
         <v>11</v>
       </c>
       <c r="C738">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D738">
-        <v>1393570</v>
+        <v>1398070</v>
       </c>
       <c r="E738" t="s">
         <v>26</v>
@@ -24839,10 +24839,10 @@
         <v>11</v>
       </c>
       <c r="C741">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="D741">
-        <v>3573194</v>
+        <v>3582194</v>
       </c>
       <c r="E741" t="s">
         <v>26</v>
@@ -24935,10 +24935,10 @@
         <v>11</v>
       </c>
       <c r="C744">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D744">
-        <v>1529453</v>
+        <v>1530953</v>
       </c>
       <c r="E744" t="s">
         <v>26</v>
@@ -24999,10 +24999,10 @@
         <v>11</v>
       </c>
       <c r="C746">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D746">
-        <v>476830</v>
+        <v>478330</v>
       </c>
       <c r="E746" t="s">
         <v>26</v>
@@ -25063,10 +25063,10 @@
         <v>11</v>
       </c>
       <c r="C748">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D748">
-        <v>110323</v>
+        <v>114261</v>
       </c>
       <c r="E748" t="s">
         <v>26</v>
@@ -25095,10 +25095,10 @@
         <v>11</v>
       </c>
       <c r="C749">
-        <v>19935</v>
+        <v>19983</v>
       </c>
       <c r="D749">
-        <v>25052835</v>
+        <v>25113969</v>
       </c>
       <c r="E749" t="s">
         <v>26</v>
@@ -25223,10 +25223,10 @@
         <v>11</v>
       </c>
       <c r="C753">
-        <v>7036</v>
+        <v>7060</v>
       </c>
       <c r="D753">
-        <v>10281336</v>
+        <v>10315364</v>
       </c>
       <c r="E753" t="s">
         <v>26</v>
@@ -25287,10 +25287,10 @@
         <v>11</v>
       </c>
       <c r="C755">
-        <v>4133</v>
+        <v>4149</v>
       </c>
       <c r="D755">
-        <v>5987097</v>
+        <v>6010546</v>
       </c>
       <c r="E755" t="s">
         <v>26</v>
@@ -25351,10 +25351,10 @@
         <v>11</v>
       </c>
       <c r="C757">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D757">
-        <v>452314</v>
+        <v>453814</v>
       </c>
       <c r="E757" t="s">
         <v>26</v>
@@ -25383,10 +25383,10 @@
         <v>11</v>
       </c>
       <c r="C758">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D758">
-        <v>464741</v>
+        <v>466088</v>
       </c>
       <c r="E758" t="s">
         <v>26</v>
@@ -25447,10 +25447,10 @@
         <v>11</v>
       </c>
       <c r="C760">
-        <v>12981</v>
+        <v>13005</v>
       </c>
       <c r="D760">
-        <v>15725956</v>
+        <v>15752283</v>
       </c>
       <c r="E760" t="s">
         <v>26</v>
@@ -25543,10 +25543,10 @@
         <v>11</v>
       </c>
       <c r="C763">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D763">
-        <v>62526</v>
+        <v>64026</v>
       </c>
       <c r="E763" t="s">
         <v>26</v>
@@ -25575,10 +25575,10 @@
         <v>11</v>
       </c>
       <c r="C764">
-        <v>4799</v>
+        <v>4817</v>
       </c>
       <c r="D764">
-        <v>7003091</v>
+        <v>7030091</v>
       </c>
       <c r="E764" t="s">
         <v>26</v>
@@ -25639,10 +25639,10 @@
         <v>11</v>
       </c>
       <c r="C766">
-        <v>2104</v>
+        <v>2112</v>
       </c>
       <c r="D766">
-        <v>3030723</v>
+        <v>3042350</v>
       </c>
       <c r="E766" t="s">
         <v>26</v>
@@ -25735,10 +25735,10 @@
         <v>11</v>
       </c>
       <c r="C769">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D769">
-        <v>309215</v>
+        <v>313482</v>
       </c>
       <c r="E769" t="s">
         <v>26</v>
@@ -25767,10 +25767,10 @@
         <v>11</v>
       </c>
       <c r="C770">
-        <v>8615</v>
+        <v>8648</v>
       </c>
       <c r="D770">
-        <v>10589152</v>
+        <v>10630232</v>
       </c>
       <c r="E770" t="s">
         <v>26</v>
@@ -25863,10 +25863,10 @@
         <v>11</v>
       </c>
       <c r="C773">
-        <v>3110</v>
+        <v>3125</v>
       </c>
       <c r="D773">
-        <v>4566948</v>
+        <v>4586830</v>
       </c>
       <c r="E773" t="s">
         <v>26</v>
@@ -25895,10 +25895,10 @@
         <v>11</v>
       </c>
       <c r="C774">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="D774">
-        <v>1921839</v>
+        <v>1927839</v>
       </c>
       <c r="E774" t="s">
         <v>26</v>
@@ -25927,10 +25927,10 @@
         <v>11</v>
       </c>
       <c r="C775">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D775">
-        <v>155896</v>
+        <v>157396</v>
       </c>
       <c r="E775" t="s">
         <v>26</v>
@@ -25959,10 +25959,10 @@
         <v>11</v>
       </c>
       <c r="C776">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D776">
-        <v>219515</v>
+        <v>223189</v>
       </c>
       <c r="E776" t="s">
         <v>26</v>
@@ -25991,10 +25991,10 @@
         <v>11</v>
       </c>
       <c r="C777">
-        <v>39518</v>
+        <v>39629</v>
       </c>
       <c r="D777">
-        <v>49911364</v>
+        <v>50049603</v>
       </c>
       <c r="E777" t="s">
         <v>27</v>
@@ -26023,10 +26023,10 @@
         <v>11</v>
       </c>
       <c r="C778">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D778">
-        <v>25790</v>
+        <v>28852</v>
       </c>
       <c r="E778" t="s">
         <v>27</v>
@@ -26087,10 +26087,10 @@
         <v>11</v>
       </c>
       <c r="C780">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D780">
-        <v>215511</v>
+        <v>217011</v>
       </c>
       <c r="E780" t="s">
         <v>27</v>
@@ -26119,10 +26119,10 @@
         <v>11</v>
       </c>
       <c r="C781">
-        <v>19371</v>
+        <v>19423</v>
       </c>
       <c r="D781">
-        <v>28435265</v>
+        <v>28509811</v>
       </c>
       <c r="E781" t="s">
         <v>27</v>
@@ -26183,10 +26183,10 @@
         <v>11</v>
       </c>
       <c r="C783">
-        <v>5214</v>
+        <v>5236</v>
       </c>
       <c r="D783">
-        <v>7508795</v>
+        <v>7538702</v>
       </c>
       <c r="E783" t="s">
         <v>27</v>
@@ -26215,10 +26215,10 @@
         <v>11</v>
       </c>
       <c r="C784">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D784">
-        <v>825808</v>
+        <v>828808</v>
       </c>
       <c r="E784" t="s">
         <v>27</v>
@@ -26247,10 +26247,10 @@
         <v>11</v>
       </c>
       <c r="C785">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D785">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E785" t="s">
         <v>27</v>
@@ -26279,10 +26279,10 @@
         <v>11</v>
       </c>
       <c r="C786">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D786">
-        <v>1041922</v>
+        <v>1045232</v>
       </c>
       <c r="E786" t="s">
         <v>27</v>
@@ -26311,10 +26311,10 @@
         <v>11</v>
       </c>
       <c r="C787">
-        <v>18894</v>
+        <v>18925</v>
       </c>
       <c r="D787">
-        <v>23627751</v>
+        <v>23665497</v>
       </c>
       <c r="E787" t="s">
         <v>27</v>
@@ -26375,10 +26375,10 @@
         <v>11</v>
       </c>
       <c r="C789">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D789">
-        <v>149323</v>
+        <v>150823</v>
       </c>
       <c r="E789" t="s">
         <v>27</v>
@@ -26407,10 +26407,10 @@
         <v>11</v>
       </c>
       <c r="C790">
-        <v>9056</v>
+        <v>9083</v>
       </c>
       <c r="D790">
-        <v>13275942</v>
+        <v>13314530</v>
       </c>
       <c r="E790" t="s">
         <v>27</v>
@@ -26471,10 +26471,10 @@
         <v>11</v>
       </c>
       <c r="C792">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="D792">
-        <v>2913901</v>
+        <v>2925901</v>
       </c>
       <c r="E792" t="s">
         <v>27</v>
@@ -26535,10 +26535,10 @@
         <v>11</v>
       </c>
       <c r="C794">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D794">
-        <v>808824</v>
+        <v>813726</v>
       </c>
       <c r="E794" t="s">
         <v>27</v>
@@ -26567,10 +26567,10 @@
         <v>11</v>
       </c>
       <c r="C795">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D795">
-        <v>700310</v>
+        <v>709310</v>
       </c>
       <c r="E795" t="s">
         <v>27</v>
@@ -26599,10 +26599,10 @@
         <v>11</v>
       </c>
       <c r="C796">
-        <v>6214</v>
+        <v>6242</v>
       </c>
       <c r="D796">
-        <v>7887668</v>
+        <v>7923889</v>
       </c>
       <c r="E796" t="s">
         <v>27</v>
@@ -26759,10 +26759,10 @@
         <v>11</v>
       </c>
       <c r="C801">
-        <v>2772</v>
+        <v>2780</v>
       </c>
       <c r="D801">
-        <v>4085148</v>
+        <v>4096762</v>
       </c>
       <c r="E801" t="s">
         <v>27</v>
@@ -26791,10 +26791,10 @@
         <v>11</v>
       </c>
       <c r="C802">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D802">
-        <v>817821</v>
+        <v>822321</v>
       </c>
       <c r="E802" t="s">
         <v>27</v>
@@ -26823,10 +26823,10 @@
         <v>11</v>
       </c>
       <c r="C803">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D803">
-        <v>190218</v>
+        <v>193218</v>
       </c>
       <c r="E803" t="s">
         <v>27</v>
@@ -26855,10 +26855,10 @@
         <v>11</v>
       </c>
       <c r="C804">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D804">
-        <v>196972</v>
+        <v>198472</v>
       </c>
       <c r="E804" t="s">
         <v>27</v>
@@ -26887,10 +26887,10 @@
         <v>11</v>
       </c>
       <c r="C805">
-        <v>11635</v>
+        <v>11658</v>
       </c>
       <c r="D805">
-        <v>14561006</v>
+        <v>14590831</v>
       </c>
       <c r="E805" t="s">
         <v>27</v>
@@ -27015,10 +27015,10 @@
         <v>11</v>
       </c>
       <c r="C809">
-        <v>4816</v>
+        <v>4825</v>
       </c>
       <c r="D809">
-        <v>7049369</v>
+        <v>7062869</v>
       </c>
       <c r="E809" t="s">
         <v>27</v>
@@ -27079,10 +27079,10 @@
         <v>11</v>
       </c>
       <c r="C811">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="D811">
-        <v>1762263</v>
+        <v>1770369</v>
       </c>
       <c r="E811" t="s">
         <v>27</v>
@@ -27143,10 +27143,10 @@
         <v>11</v>
       </c>
       <c r="C813">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D813">
-        <v>178273</v>
+        <v>179773</v>
       </c>
       <c r="E813" t="s">
         <v>27</v>
@@ -27207,10 +27207,10 @@
         <v>11</v>
       </c>
       <c r="C815">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D815">
-        <v>275004</v>
+        <v>279324</v>
       </c>
       <c r="E815" t="s">
         <v>27</v>
@@ -27239,10 +27239,10 @@
         <v>11</v>
       </c>
       <c r="C816">
-        <v>17591</v>
+        <v>17631</v>
       </c>
       <c r="D816">
-        <v>22150221</v>
+        <v>22201592</v>
       </c>
       <c r="E816" t="s">
         <v>27</v>
@@ -27335,10 +27335,10 @@
         <v>11</v>
       </c>
       <c r="C819">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D819">
-        <v>174480</v>
+        <v>175980</v>
       </c>
       <c r="E819" t="s">
         <v>27</v>
@@ -27367,10 +27367,10 @@
         <v>11</v>
       </c>
       <c r="C820">
-        <v>9336</v>
+        <v>9368</v>
       </c>
       <c r="D820">
-        <v>13665322</v>
+        <v>13713322</v>
       </c>
       <c r="E820" t="s">
         <v>27</v>
@@ -27431,10 +27431,10 @@
         <v>11</v>
       </c>
       <c r="C822">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="D822">
-        <v>2684531</v>
+        <v>2693413</v>
       </c>
       <c r="E822" t="s">
         <v>27</v>
@@ -27495,10 +27495,10 @@
         <v>11</v>
       </c>
       <c r="C824">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D824">
-        <v>478242</v>
+        <v>487242</v>
       </c>
       <c r="E824" t="s">
         <v>27</v>
@@ -27527,10 +27527,10 @@
         <v>11</v>
       </c>
       <c r="C825">
-        <v>58292</v>
+        <v>58469</v>
       </c>
       <c r="D825">
-        <v>74957941</v>
+        <v>75179818</v>
       </c>
       <c r="E825" t="s">
         <v>28</v>
@@ -27591,10 +27591,10 @@
         <v>11</v>
       </c>
       <c r="C827">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D827">
-        <v>93350</v>
+        <v>94850</v>
       </c>
       <c r="E827" t="s">
         <v>28</v>
@@ -27751,10 +27751,10 @@
         <v>11</v>
       </c>
       <c r="C832">
-        <v>22765</v>
+        <v>22826</v>
       </c>
       <c r="D832">
-        <v>33410576</v>
+        <v>33500020</v>
       </c>
       <c r="E832" t="s">
         <v>28</v>
@@ -27815,10 +27815,10 @@
         <v>11</v>
       </c>
       <c r="C834">
-        <v>15251</v>
+        <v>15315</v>
       </c>
       <c r="D834">
-        <v>22145118</v>
+        <v>22238702</v>
       </c>
       <c r="E834" t="s">
         <v>28</v>
@@ -27879,10 +27879,10 @@
         <v>11</v>
       </c>
       <c r="C836">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D836">
-        <v>532142</v>
+        <v>539642</v>
       </c>
       <c r="E836" t="s">
         <v>28</v>
@@ -27911,10 +27911,10 @@
         <v>11</v>
       </c>
       <c r="C837">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D837">
-        <v>988790</v>
+        <v>991790</v>
       </c>
       <c r="E837" t="s">
         <v>28</v>
@@ -27943,10 +27943,10 @@
         <v>11</v>
       </c>
       <c r="C838">
-        <v>7681</v>
+        <v>7698</v>
       </c>
       <c r="D838">
-        <v>9656206</v>
+        <v>9680741</v>
       </c>
       <c r="E838" t="s">
         <v>28</v>
@@ -28039,10 +28039,10 @@
         <v>11</v>
       </c>
       <c r="C841">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D841">
-        <v>61500</v>
+        <v>64500</v>
       </c>
       <c r="E841" t="s">
         <v>28</v>
@@ -28103,10 +28103,10 @@
         <v>11</v>
       </c>
       <c r="C843">
-        <v>2877</v>
+        <v>2891</v>
       </c>
       <c r="D843">
-        <v>4205289</v>
+        <v>4226289</v>
       </c>
       <c r="E843" t="s">
         <v>28</v>
@@ -28135,10 +28135,10 @@
         <v>11</v>
       </c>
       <c r="C844">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="D844">
-        <v>1934540</v>
+        <v>1948695</v>
       </c>
       <c r="E844" t="s">
         <v>28</v>
@@ -28199,10 +28199,10 @@
         <v>11</v>
       </c>
       <c r="C846">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D846">
-        <v>200907</v>
+        <v>202382</v>
       </c>
       <c r="E846" t="s">
         <v>28</v>
@@ -28231,10 +28231,10 @@
         <v>11</v>
       </c>
       <c r="C847">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D847">
-        <v>235358</v>
+        <v>236858</v>
       </c>
       <c r="E847" t="s">
         <v>28</v>
@@ -28263,10 +28263,10 @@
         <v>11</v>
       </c>
       <c r="C848">
-        <v>73625</v>
+        <v>73818</v>
       </c>
       <c r="D848">
-        <v>92711696</v>
+        <v>92949754</v>
       </c>
       <c r="E848" t="s">
         <v>28</v>
@@ -28455,10 +28455,10 @@
         <v>11</v>
       </c>
       <c r="C854">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D854">
-        <v>377280</v>
+        <v>378780</v>
       </c>
       <c r="E854" t="s">
         <v>28</v>
@@ -28487,10 +28487,10 @@
         <v>11</v>
       </c>
       <c r="C855">
-        <v>30837</v>
+        <v>30939</v>
       </c>
       <c r="D855">
-        <v>45284619</v>
+        <v>45432090</v>
       </c>
       <c r="E855" t="s">
         <v>28</v>
@@ -28583,10 +28583,10 @@
         <v>11</v>
       </c>
       <c r="C858">
-        <v>22388</v>
+        <v>22469</v>
       </c>
       <c r="D858">
-        <v>32511431</v>
+        <v>32625482</v>
       </c>
       <c r="E858" t="s">
         <v>28</v>
@@ -28615,10 +28615,10 @@
         <v>11</v>
       </c>
       <c r="C859">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D859">
-        <v>767632</v>
+        <v>769132</v>
       </c>
       <c r="E859" t="s">
         <v>28</v>
@@ -28679,10 +28679,10 @@
         <v>11</v>
       </c>
       <c r="C861">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="D861">
-        <v>2135105</v>
+        <v>2146975</v>
       </c>
       <c r="E861" t="s">
         <v>28</v>
@@ -28711,10 +28711,10 @@
         <v>11</v>
       </c>
       <c r="C862">
-        <v>9601</v>
+        <v>9628</v>
       </c>
       <c r="D862">
-        <v>12575270</v>
+        <v>12608080</v>
       </c>
       <c r="E862" t="s">
         <v>28</v>
@@ -28839,10 +28839,10 @@
         <v>11</v>
       </c>
       <c r="C866">
-        <v>3082</v>
+        <v>3099</v>
       </c>
       <c r="D866">
-        <v>4507850</v>
+        <v>4531738</v>
       </c>
       <c r="E866" t="s">
         <v>28</v>
@@ -28871,10 +28871,10 @@
         <v>11</v>
       </c>
       <c r="C867">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="D867">
-        <v>1399315</v>
+        <v>1403822</v>
       </c>
       <c r="E867" t="s">
         <v>28</v>
@@ -29031,10 +29031,10 @@
         <v>11</v>
       </c>
       <c r="C872">
-        <v>50338</v>
+        <v>50463</v>
       </c>
       <c r="D872">
-        <v>63135684</v>
+        <v>63288916</v>
       </c>
       <c r="E872" t="s">
         <v>28</v>
@@ -29063,10 +29063,10 @@
         <v>11</v>
       </c>
       <c r="C873">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D873">
-        <v>37390</v>
+        <v>38890</v>
       </c>
       <c r="E873" t="s">
         <v>28</v>
@@ -29191,10 +29191,10 @@
         <v>11</v>
       </c>
       <c r="C877">
-        <v>17063</v>
+        <v>17124</v>
       </c>
       <c r="D877">
-        <v>25026938</v>
+        <v>25114584</v>
       </c>
       <c r="E877" t="s">
         <v>28</v>
@@ -29255,10 +29255,10 @@
         <v>11</v>
       </c>
       <c r="C879">
-        <v>11398</v>
+        <v>11448</v>
       </c>
       <c r="D879">
-        <v>16510428</v>
+        <v>16583680</v>
       </c>
       <c r="E879" t="s">
         <v>28</v>
@@ -29287,10 +29287,10 @@
         <v>11</v>
       </c>
       <c r="C880">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D880">
-        <v>617730</v>
+        <v>619230</v>
       </c>
       <c r="E880" t="s">
         <v>28</v>
@@ -29319,10 +29319,10 @@
         <v>11</v>
       </c>
       <c r="C881">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D881">
-        <v>836674</v>
+        <v>838159</v>
       </c>
       <c r="E881" t="s">
         <v>28</v>
@@ -29351,10 +29351,10 @@
         <v>11</v>
       </c>
       <c r="C882">
-        <v>25054</v>
+        <v>25136</v>
       </c>
       <c r="D882">
-        <v>31247494</v>
+        <v>31351865</v>
       </c>
       <c r="E882" t="s">
         <v>28</v>
@@ -29479,10 +29479,10 @@
         <v>11</v>
       </c>
       <c r="C886">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D886">
-        <v>95760</v>
+        <v>97260</v>
       </c>
       <c r="E886" t="s">
         <v>28</v>
@@ -29511,10 +29511,10 @@
         <v>11</v>
       </c>
       <c r="C887">
-        <v>9529</v>
+        <v>9554</v>
       </c>
       <c r="D887">
-        <v>13968995</v>
+        <v>14004030</v>
       </c>
       <c r="E887" t="s">
         <v>28</v>
@@ -29575,10 +29575,10 @@
         <v>11</v>
       </c>
       <c r="C889">
-        <v>5571</v>
+        <v>5584</v>
       </c>
       <c r="D889">
-        <v>8096438</v>
+        <v>8113904</v>
       </c>
       <c r="E889" t="s">
         <v>28</v>
@@ -29607,10 +29607,10 @@
         <v>11</v>
       </c>
       <c r="C890">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D890">
-        <v>668372</v>
+        <v>671372</v>
       </c>
       <c r="E890" t="s">
         <v>28</v>
@@ -29639,10 +29639,10 @@
         <v>11</v>
       </c>
       <c r="C891">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D891">
-        <v>533680</v>
+        <v>539330</v>
       </c>
       <c r="E891" t="s">
         <v>28</v>
@@ -29671,10 +29671,10 @@
         <v>11</v>
       </c>
       <c r="C892">
-        <v>29060</v>
+        <v>29143</v>
       </c>
       <c r="D892">
-        <v>37720199</v>
+        <v>37827941</v>
       </c>
       <c r="E892" t="s">
         <v>29</v>
@@ -29703,10 +29703,10 @@
         <v>11</v>
       </c>
       <c r="C893">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D893">
-        <v>3843</v>
+        <v>5343</v>
       </c>
       <c r="E893" t="s">
         <v>29</v>
@@ -29799,10 +29799,10 @@
         <v>11</v>
       </c>
       <c r="C896">
-        <v>12076</v>
+        <v>12111</v>
       </c>
       <c r="D896">
-        <v>17795019</v>
+        <v>17844631</v>
       </c>
       <c r="E896" t="s">
         <v>29</v>
@@ -29863,10 +29863,10 @@
         <v>11</v>
       </c>
       <c r="C898">
-        <v>10305</v>
+        <v>10339</v>
       </c>
       <c r="D898">
-        <v>15037491</v>
+        <v>15082829</v>
       </c>
       <c r="E898" t="s">
         <v>29</v>
@@ -29895,10 +29895,10 @@
         <v>11</v>
       </c>
       <c r="C899">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D899">
-        <v>213036</v>
+        <v>214388</v>
       </c>
       <c r="E899" t="s">
         <v>29</v>
@@ -29959,10 +29959,10 @@
         <v>11</v>
       </c>
       <c r="C901">
-        <v>47307</v>
+        <v>47574</v>
       </c>
       <c r="D901">
-        <v>62257130</v>
+        <v>62612322</v>
       </c>
       <c r="E901" t="s">
         <v>29</v>
@@ -30055,10 +30055,10 @@
         <v>11</v>
       </c>
       <c r="C904">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D904">
-        <v>154955</v>
+        <v>156455</v>
       </c>
       <c r="E904" t="s">
         <v>29</v>
@@ -30119,10 +30119,10 @@
         <v>11</v>
       </c>
       <c r="C906">
-        <v>20044</v>
+        <v>20107</v>
       </c>
       <c r="D906">
-        <v>29486402</v>
+        <v>29575264</v>
       </c>
       <c r="E906" t="s">
         <v>29</v>
@@ -30183,10 +30183,10 @@
         <v>11</v>
       </c>
       <c r="C908">
-        <v>18820</v>
+        <v>18871</v>
       </c>
       <c r="D908">
-        <v>27357778</v>
+        <v>27434278</v>
       </c>
       <c r="E908" t="s">
         <v>29</v>
@@ -30247,10 +30247,10 @@
         <v>11</v>
       </c>
       <c r="C910">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D910">
-        <v>293812</v>
+        <v>304312</v>
       </c>
       <c r="E910" t="s">
         <v>29</v>
@@ -30279,10 +30279,10 @@
         <v>11</v>
       </c>
       <c r="C911">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D911">
-        <v>675768</v>
+        <v>683268</v>
       </c>
       <c r="E911" t="s">
         <v>29</v>
@@ -30311,10 +30311,10 @@
         <v>11</v>
       </c>
       <c r="C912">
-        <v>118984</v>
+        <v>119543</v>
       </c>
       <c r="D912">
-        <v>156625490</v>
+        <v>157358801</v>
       </c>
       <c r="E912" t="s">
         <v>29</v>
@@ -30471,10 +30471,10 @@
         <v>11</v>
       </c>
       <c r="C917">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D917">
-        <v>563836</v>
+        <v>566836</v>
       </c>
       <c r="E917" t="s">
         <v>29</v>
@@ -30535,10 +30535,10 @@
         <v>11</v>
       </c>
       <c r="C919">
-        <v>69846</v>
+        <v>70152</v>
       </c>
       <c r="D919">
-        <v>102771356</v>
+        <v>103220313</v>
       </c>
       <c r="E919" t="s">
         <v>29</v>
@@ -30567,10 +30567,10 @@
         <v>11</v>
       </c>
       <c r="C920">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D920">
-        <v>284842</v>
+        <v>286342</v>
       </c>
       <c r="E920" t="s">
         <v>29</v>
@@ -30631,10 +30631,10 @@
         <v>11</v>
       </c>
       <c r="C922">
-        <v>50168</v>
+        <v>50395</v>
       </c>
       <c r="D922">
-        <v>72913550</v>
+        <v>73241605</v>
       </c>
       <c r="E922" t="s">
         <v>29</v>
@@ -30695,10 +30695,10 @@
         <v>11</v>
       </c>
       <c r="C924">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="D924">
-        <v>1156790</v>
+        <v>1173921</v>
       </c>
       <c r="E924" t="s">
         <v>29</v>
@@ -30759,10 +30759,10 @@
         <v>11</v>
       </c>
       <c r="C926">
-        <v>2071</v>
+        <v>2092</v>
       </c>
       <c r="D926">
-        <v>2928843</v>
+        <v>2957968</v>
       </c>
       <c r="E926" t="s">
         <v>29</v>
@@ -30823,10 +30823,10 @@
         <v>11</v>
       </c>
       <c r="C928">
-        <v>47658</v>
+        <v>47950</v>
       </c>
       <c r="D928">
-        <v>63503232</v>
+        <v>63889993</v>
       </c>
       <c r="E928" t="s">
         <v>29</v>
@@ -30951,10 +30951,10 @@
         <v>11</v>
       </c>
       <c r="C932">
-        <v>20221</v>
+        <v>20316</v>
       </c>
       <c r="D932">
-        <v>29870275</v>
+        <v>30011248</v>
       </c>
       <c r="E932" t="s">
         <v>29</v>
@@ -31015,10 +31015,10 @@
         <v>11</v>
       </c>
       <c r="C934">
-        <v>19820</v>
+        <v>19896</v>
       </c>
       <c r="D934">
-        <v>29012061</v>
+        <v>29123195</v>
       </c>
       <c r="E934" t="s">
         <v>29</v>
@@ -31047,10 +31047,10 @@
         <v>11</v>
       </c>
       <c r="C935">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D935">
-        <v>301801</v>
+        <v>303331</v>
       </c>
       <c r="E935" t="s">
         <v>29</v>
@@ -31079,10 +31079,10 @@
         <v>11</v>
       </c>
       <c r="C936">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D936">
-        <v>872998</v>
+        <v>877498</v>
       </c>
       <c r="E936" t="s">
         <v>29</v>
@@ -31111,10 +31111,10 @@
         <v>11</v>
       </c>
       <c r="C937">
-        <v>34452</v>
+        <v>34534</v>
       </c>
       <c r="D937">
-        <v>44666300</v>
+        <v>44774912</v>
       </c>
       <c r="E937" t="s">
         <v>29</v>
@@ -31239,10 +31239,10 @@
         <v>11</v>
       </c>
       <c r="C941">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D941">
-        <v>196599</v>
+        <v>198099</v>
       </c>
       <c r="E941" t="s">
         <v>29</v>
@@ -31271,10 +31271,10 @@
         <v>11</v>
       </c>
       <c r="C942">
-        <v>13759</v>
+        <v>13794</v>
       </c>
       <c r="D942">
-        <v>20257982</v>
+        <v>20309264</v>
       </c>
       <c r="E942" t="s">
         <v>29</v>
@@ -31303,10 +31303,10 @@
         <v>11</v>
       </c>
       <c r="C943">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D943">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="E943" t="s">
         <v>29</v>
@@ -31335,10 +31335,10 @@
         <v>11</v>
       </c>
       <c r="C944">
-        <v>11191</v>
+        <v>11228</v>
       </c>
       <c r="D944">
-        <v>16240059</v>
+        <v>16291517</v>
       </c>
       <c r="E944" t="s">
         <v>29</v>
@@ -31463,10 +31463,10 @@
         <v>11</v>
       </c>
       <c r="C948">
-        <v>32743</v>
+        <v>32878</v>
       </c>
       <c r="D948">
-        <v>43213408</v>
+        <v>43402504</v>
       </c>
       <c r="E948" t="s">
         <v>29</v>
@@ -31559,10 +31559,10 @@
         <v>11</v>
       </c>
       <c r="C951">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D951">
-        <v>208340</v>
+        <v>209840</v>
       </c>
       <c r="E951" t="s">
         <v>29</v>
@@ -31591,10 +31591,10 @@
         <v>11</v>
       </c>
       <c r="C952">
-        <v>12545</v>
+        <v>12595</v>
       </c>
       <c r="D952">
-        <v>18516910</v>
+        <v>18591910</v>
       </c>
       <c r="E952" t="s">
         <v>29</v>
@@ -31655,10 +31655,10 @@
         <v>11</v>
       </c>
       <c r="C954">
-        <v>12085</v>
+        <v>12147</v>
       </c>
       <c r="D954">
-        <v>17569901</v>
+        <v>17654121</v>
       </c>
       <c r="E954" t="s">
         <v>29</v>
@@ -31687,10 +31687,10 @@
         <v>11</v>
       </c>
       <c r="C955">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D955">
-        <v>204417</v>
+        <v>205853</v>
       </c>
       <c r="E955" t="s">
         <v>29</v>
@@ -31751,10 +31751,10 @@
         <v>11</v>
       </c>
       <c r="C957">
-        <v>41895</v>
+        <v>42071</v>
       </c>
       <c r="D957">
-        <v>55180401</v>
+        <v>55408315</v>
       </c>
       <c r="E957" t="s">
         <v>29</v>
@@ -31847,10 +31847,10 @@
         <v>11</v>
       </c>
       <c r="C960">
-        <v>15551</v>
+        <v>15606</v>
       </c>
       <c r="D960">
-        <v>22877271</v>
+        <v>22958076</v>
       </c>
       <c r="E960" t="s">
         <v>29</v>
@@ -31911,10 +31911,10 @@
         <v>11</v>
       </c>
       <c r="C962">
-        <v>15370</v>
+        <v>15443</v>
       </c>
       <c r="D962">
-        <v>22349479</v>
+        <v>22454125</v>
       </c>
       <c r="E962" t="s">
         <v>29</v>
@@ -31975,10 +31975,10 @@
         <v>11</v>
       </c>
       <c r="C964">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D964">
-        <v>642873</v>
+        <v>647373</v>
       </c>
       <c r="E964" t="s">
         <v>29</v>
@@ -32007,10 +32007,10 @@
         <v>11</v>
       </c>
       <c r="C965">
-        <v>33985</v>
+        <v>34136</v>
       </c>
       <c r="D965">
-        <v>44014669</v>
+        <v>44220166</v>
       </c>
       <c r="E965" t="s">
         <v>29</v>
@@ -32135,10 +32135,10 @@
         <v>11</v>
       </c>
       <c r="C969">
-        <v>14488</v>
+        <v>14540</v>
       </c>
       <c r="D969">
-        <v>21292196</v>
+        <v>21364489</v>
       </c>
       <c r="E969" t="s">
         <v>29</v>
@@ -32199,10 +32199,10 @@
         <v>11</v>
       </c>
       <c r="C971">
-        <v>11229</v>
+        <v>11277</v>
       </c>
       <c r="D971">
-        <v>16255287</v>
+        <v>16325737</v>
       </c>
       <c r="E971" t="s">
         <v>29</v>
@@ -32295,10 +32295,10 @@
         <v>11</v>
       </c>
       <c r="C974">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D974">
-        <v>359917</v>
+        <v>362917</v>
       </c>
       <c r="E974" t="s">
         <v>29</v>
